--- a/总结/服务器/linux.xlsx
+++ b/总结/服务器/linux.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84AA56B-7FFE-C944-A0B7-033C5868E4B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -4351,8 +4352,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4371,15 +4372,20 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4409,7 +4415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4432,20 +4438,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4453,77 +4465,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4537,7 +4484,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4572,7 +4519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4605,9 +4552,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4640,6 +4604,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4815,27 +4796,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4843,7 +4824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4851,7 +4832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
         <v>207</v>
       </c>
@@ -4859,7 +4840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4867,7 +4848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4875,7 +4856,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4883,7 +4864,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4891,7 +4872,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4899,7 +4880,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -4907,7 +4888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -4915,7 +4896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4923,7 +4904,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -4931,7 +4912,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -4939,7 +4920,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -4947,7 +4928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="1" t="s">
         <v>215</v>
       </c>
@@ -4955,7 +4936,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -4963,7 +4944,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="75">
       <c r="A18" s="1" t="s">
         <v>218</v>
       </c>
@@ -4971,7 +4952,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -4979,7 +4960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="30">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -4987,7 +4968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="45">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -4995,13 +4976,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="45">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -5009,7 +4990,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -5017,7 +4998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -5025,7 +5006,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -5033,7 +5014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -5041,7 +5022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -5049,7 +5030,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -5057,7 +5038,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="15">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -5065,7 +5046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="45">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -5073,7 +5054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -5081,7 +5062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -5089,7 +5070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="30">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -5097,7 +5078,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="15">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
@@ -5105,7 +5086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="15">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -5113,7 +5094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="30">
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
@@ -5121,7 +5102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -5129,7 +5110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -5137,7 +5118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
         <v>59</v>
       </c>
@@ -5145,7 +5126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="30">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -5153,7 +5134,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" ht="15">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -5161,7 +5142,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -5169,7 +5150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="30">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -5177,7 +5158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" ht="15">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -5185,7 +5166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="15">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -5193,7 +5174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" ht="15">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -5201,7 +5182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" ht="15">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -5209,7 +5190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="15">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -5217,13 +5198,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="15">
       <c r="A50" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="15">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
@@ -5231,7 +5212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="15">
       <c r="A52" s="1" t="s">
         <v>85</v>
       </c>
@@ -5239,7 +5220,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="15">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
@@ -5247,7 +5228,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="15">
       <c r="A54" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,7 +5236,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="15">
       <c r="A55" s="1" t="s">
         <v>88</v>
       </c>
@@ -5263,7 +5244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="15">
       <c r="A56" s="1" t="s">
         <v>90</v>
       </c>
@@ -5271,7 +5252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="15">
       <c r="A57" s="1" t="s">
         <v>92</v>
       </c>
@@ -5279,7 +5260,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="15">
       <c r="A58" s="1" t="s">
         <v>93</v>
       </c>
@@ -5287,7 +5268,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="15">
       <c r="A59" s="1" t="s">
         <v>94</v>
       </c>
@@ -5295,7 +5276,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="15">
       <c r="A60" s="1" t="s">
         <v>95</v>
       </c>
@@ -5303,7 +5284,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="15">
       <c r="A61" s="1" t="s">
         <v>96</v>
       </c>
@@ -5311,7 +5292,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="15">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
@@ -5319,7 +5300,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="15">
       <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
@@ -5327,7 +5308,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="30">
       <c r="A64" s="1" t="s">
         <v>100</v>
       </c>
@@ -5335,13 +5316,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="15">
       <c r="A65" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="15">
       <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
@@ -5349,7 +5330,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="15">
       <c r="A67" s="1" t="s">
         <v>115</v>
       </c>
@@ -5357,7 +5338,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="15">
       <c r="A68" s="1" t="s">
         <v>117</v>
       </c>
@@ -5365,7 +5346,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="15">
       <c r="A69" s="1" t="s">
         <v>119</v>
       </c>
@@ -5373,7 +5354,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="15">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
@@ -5381,7 +5362,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="15">
       <c r="A71" s="1" t="s">
         <v>122</v>
       </c>
@@ -5389,7 +5370,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" ht="30">
       <c r="A72" s="1" t="s">
         <v>124</v>
       </c>
@@ -5397,7 +5378,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" ht="15">
       <c r="A73" s="1" t="s">
         <v>125</v>
       </c>
@@ -5405,7 +5386,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" ht="30">
       <c r="A74" s="1" t="s">
         <v>126</v>
       </c>
@@ -5413,7 +5394,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" ht="30">
       <c r="A75" s="1" t="s">
         <v>127</v>
       </c>
@@ -5421,7 +5402,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" ht="45">
       <c r="A76" s="1" t="s">
         <v>128</v>
       </c>
@@ -5429,7 +5410,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" ht="15">
       <c r="A77" s="1" t="s">
         <v>129</v>
       </c>
@@ -5437,7 +5418,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" ht="30">
       <c r="A78" s="1" t="s">
         <v>130</v>
       </c>
@@ -5445,13 +5426,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" ht="15">
       <c r="A79" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" ht="15">
       <c r="A80" s="1" t="s">
         <v>140</v>
       </c>
@@ -5459,7 +5440,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" ht="15">
       <c r="A81" s="1" t="s">
         <v>142</v>
       </c>
@@ -5467,7 +5448,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" ht="15">
       <c r="A82" s="1" t="s">
         <v>143</v>
       </c>
@@ -5475,7 +5456,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" ht="15">
       <c r="A83" s="1" t="s">
         <v>144</v>
       </c>
@@ -5483,7 +5464,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" ht="15">
       <c r="A84" s="1" t="s">
         <v>146</v>
       </c>
@@ -5491,7 +5472,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" ht="15">
       <c r="A85" s="1" t="s">
         <v>147</v>
       </c>
@@ -5499,7 +5480,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" ht="15">
       <c r="A86" s="1" t="s">
         <v>149</v>
       </c>
@@ -5507,7 +5488,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" ht="15">
       <c r="A87" s="1" t="s">
         <v>150</v>
       </c>
@@ -5515,7 +5496,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" ht="15">
       <c r="A88" s="1" t="s">
         <v>151</v>
       </c>
@@ -5523,7 +5504,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" ht="15">
       <c r="A89" s="1" t="s">
         <v>153</v>
       </c>
@@ -5531,7 +5512,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" ht="15">
       <c r="A90" s="1" t="s">
         <v>154</v>
       </c>
@@ -5539,7 +5520,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" ht="15">
       <c r="A91" s="1" t="s">
         <v>155</v>
       </c>
@@ -5547,7 +5528,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" ht="15">
       <c r="A92" s="1" t="s">
         <v>156</v>
       </c>
@@ -5555,7 +5536,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" ht="15">
       <c r="A93" s="1" t="s">
         <v>157</v>
       </c>
@@ -5563,7 +5544,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" ht="15">
       <c r="A94" s="1" t="s">
         <v>158</v>
       </c>
@@ -5571,7 +5552,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" ht="15">
       <c r="A95" s="1" t="s">
         <v>159</v>
       </c>
@@ -5579,13 +5560,13 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" ht="15">
       <c r="A96" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" ht="15">
       <c r="A97" s="1" t="s">
         <v>173</v>
       </c>
@@ -5593,7 +5574,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" ht="15">
       <c r="A98" s="1" t="s">
         <v>174</v>
       </c>
@@ -5601,7 +5582,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" ht="15">
       <c r="A99" s="1" t="s">
         <v>175</v>
       </c>
@@ -5609,7 +5590,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" ht="15">
       <c r="A100" s="1" t="s">
         <v>177</v>
       </c>
@@ -5617,7 +5598,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" ht="15">
       <c r="A101" s="1" t="s">
         <v>178</v>
       </c>
@@ -5625,7 +5606,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" ht="15">
       <c r="A102" s="1" t="s">
         <v>180</v>
       </c>
@@ -5633,7 +5614,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" ht="15">
       <c r="A103" s="1" t="s">
         <v>182</v>
       </c>
@@ -5641,7 +5622,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" ht="15">
       <c r="A104" s="1" t="s">
         <v>183</v>
       </c>
@@ -5649,7 +5630,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" ht="15">
       <c r="A105" s="1" t="s">
         <v>185</v>
       </c>
@@ -5657,7 +5638,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" ht="15">
       <c r="A106" s="1" t="s">
         <v>187</v>
       </c>
@@ -5665,7 +5646,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" ht="15">
       <c r="A107" s="1" t="s">
         <v>189</v>
       </c>
@@ -5673,7 +5654,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" ht="15">
       <c r="A108" s="1" t="s">
         <v>191</v>
       </c>
@@ -5681,7 +5662,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" ht="15">
       <c r="A109" s="1" t="s">
         <v>193</v>
       </c>
@@ -5689,7 +5670,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" ht="15">
       <c r="A110" s="1" t="s">
         <v>195</v>
       </c>
@@ -5697,7 +5678,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" ht="15">
       <c r="A111" s="1" t="s">
         <v>197</v>
       </c>
@@ -5705,7 +5686,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" ht="15">
       <c r="A112" s="1" t="s">
         <v>199</v>
       </c>
@@ -5713,7 +5694,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" ht="15">
       <c r="A113" s="1" t="s">
         <v>200</v>
       </c>
@@ -5721,7 +5702,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" ht="15">
       <c r="A114" s="1" t="s">
         <v>202</v>
       </c>
@@ -5737,486 +5718,486 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="14" t="s">
         <v>549</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="14" t="s">
         <v>551</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="14" t="s">
         <v>553</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="13" t="s">
         <v>555</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="14" t="s">
         <v>557</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="14" t="s">
         <v>559</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="14" t="s">
         <v>561</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="14" t="s">
         <v>563</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="14" t="s">
         <v>567</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="14" t="s">
         <v>569</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="14" t="s">
         <v>571</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="13" t="s">
         <v>573</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="13" t="s">
         <v>947</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="14" t="s">
         <v>575</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="14" t="s">
         <v>577</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="14" t="s">
         <v>579</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="14" t="s">
         <v>581</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="14" t="s">
         <v>583</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="13" t="s">
         <v>585</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="14" t="s">
         <v>587</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="14" t="s">
         <v>589</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="13" t="s">
         <v>591</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" ht="60">
+      <c r="A24" s="14" t="s">
         <v>593</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="14" t="s">
         <v>595</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="14" t="s">
         <v>597</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="14" t="s">
         <v>599</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="14" t="s">
         <v>601</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="14" t="s">
         <v>603</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="14" t="s">
         <v>605</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="14" t="s">
         <v>607</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="14" t="s">
         <v>609</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="14" t="s">
         <v>611</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="14" t="s">
         <v>613</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="14" t="s">
         <v>615</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="14" t="s">
         <v>617</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="14" t="s">
         <v>619</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="14" t="s">
         <v>621</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="14" t="s">
         <v>623</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="14" t="s">
         <v>625</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="14" t="s">
         <v>627</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:2" ht="15">
+      <c r="A42" s="14" t="s">
         <v>629</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:2" ht="60">
+      <c r="A43" s="14" t="s">
         <v>631</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44" s="14" t="s">
         <v>633</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="14" t="s">
         <v>635</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:2" ht="15">
+      <c r="A46" s="14" t="s">
         <v>637</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="14" t="s">
         <v>639</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="14" t="s">
         <v>641</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:2" ht="15">
+      <c r="A49" s="14" t="s">
         <v>643</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:2" ht="15">
+      <c r="A50" s="14" t="s">
         <v>645</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:2" ht="15">
+      <c r="A51" s="14" t="s">
         <v>647</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:2" ht="15">
+      <c r="A52" s="13" t="s">
         <v>649</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:2" ht="15">
+      <c r="A53" s="13" t="s">
         <v>944</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="13" t="s">
         <v>949</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="13" t="s">
         <v>951</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:2" ht="15">
+      <c r="A56" s="13" t="s">
         <v>953</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:2" ht="15">
+      <c r="A57" s="13" t="s">
         <v>955</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:2" ht="15">
+      <c r="A58" s="13" t="s">
         <v>957</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:2" ht="15">
+      <c r="A59" s="13" t="s">
         <v>964</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -6230,21 +6211,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="1" t="s">
         <v>651</v>
       </c>
@@ -6252,7 +6233,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
         <v>653</v>
       </c>
@@ -6260,7 +6241,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
         <v>655</v>
       </c>
@@ -6268,7 +6249,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="1" t="s">
         <v>657</v>
       </c>
@@ -6276,7 +6257,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
         <v>659</v>
       </c>
@@ -6284,7 +6265,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="30">
       <c r="A6" s="1" t="s">
         <v>661</v>
       </c>
@@ -6292,7 +6273,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
         <v>663</v>
       </c>
@@ -6300,7 +6281,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
         <v>665</v>
       </c>
@@ -6308,7 +6289,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
         <v>667</v>
       </c>
@@ -6316,7 +6297,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
         <v>669</v>
       </c>
@@ -6324,7 +6305,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
         <v>671</v>
       </c>
@@ -6332,7 +6313,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
         <v>673</v>
       </c>
@@ -6340,7 +6321,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
         <v>675</v>
       </c>
@@ -6348,7 +6329,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
         <v>677</v>
       </c>
@@ -6356,7 +6337,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
         <v>679</v>
       </c>
@@ -6364,7 +6345,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
         <v>681</v>
       </c>
@@ -6372,7 +6353,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
         <v>683</v>
       </c>
@@ -6380,7 +6361,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
         <v>685</v>
       </c>
@@ -6388,7 +6369,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
         <v>687</v>
       </c>
@@ -6396,7 +6377,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
         <v>689</v>
       </c>
@@ -6404,7 +6385,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="30">
       <c r="A21" s="1" t="s">
         <v>691</v>
       </c>
@@ -6412,7 +6393,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="30">
       <c r="A22" s="1" t="s">
         <v>693</v>
       </c>
@@ -6420,7 +6401,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
         <v>695</v>
       </c>
@@ -6428,7 +6409,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
         <v>697</v>
       </c>
@@ -6436,7 +6417,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
         <v>699</v>
       </c>
@@ -6444,7 +6425,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
         <v>701</v>
       </c>
@@ -6452,7 +6433,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
         <v>703</v>
       </c>
@@ -6460,7 +6441,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
         <v>705</v>
       </c>
@@ -6468,7 +6449,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
         <v>707</v>
       </c>
@@ -6476,7 +6457,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="30">
       <c r="A30" s="1" t="s">
         <v>709</v>
       </c>
@@ -6484,7 +6465,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
         <v>711</v>
       </c>
@@ -6492,7 +6473,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
         <v>713</v>
       </c>
@@ -6500,7 +6481,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
         <v>715</v>
       </c>
@@ -6508,7 +6489,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
         <v>717</v>
       </c>
@@ -6516,7 +6497,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="30">
       <c r="A35" s="1" t="s">
         <v>719</v>
       </c>
@@ -6524,7 +6505,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="30">
       <c r="A36" s="1" t="s">
         <v>721</v>
       </c>
@@ -6532,7 +6513,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
         <v>723</v>
       </c>
@@ -6540,7 +6521,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
         <v>725</v>
       </c>
@@ -6548,7 +6529,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
         <v>727</v>
       </c>
@@ -6556,7 +6537,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
         <v>729</v>
       </c>
@@ -6564,7 +6545,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="15">
       <c r="A41" s="1" t="s">
         <v>731</v>
       </c>
@@ -6572,7 +6553,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" ht="15">
       <c r="A42" s="1" t="s">
         <v>733</v>
       </c>
@@ -6580,7 +6561,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
         <v>735</v>
       </c>
@@ -6588,7 +6569,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="15">
       <c r="A44" s="1" t="s">
         <v>737</v>
       </c>
@@ -6596,7 +6577,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" ht="15">
       <c r="A45" s="1" t="s">
         <v>739</v>
       </c>
@@ -6604,7 +6585,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="15">
       <c r="A46" s="1" t="s">
         <v>741</v>
       </c>
@@ -6612,7 +6593,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" ht="15">
       <c r="A47" s="1" t="s">
         <v>743</v>
       </c>
@@ -6620,7 +6601,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" ht="15">
       <c r="A48" s="1" t="s">
         <v>745</v>
       </c>
@@ -6628,7 +6609,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="15">
       <c r="A49" s="1" t="s">
         <v>747</v>
       </c>
@@ -6643,23 +6624,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="59.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>534</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6669,8 +6650,8 @@
         <v>824</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>535</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6680,8 +6661,8 @@
         <v>826</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>536</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6691,16 +6672,16 @@
         <v>827</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>537</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>538</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6710,8 +6691,8 @@
         <v>832</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>543</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6721,8 +6702,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>863</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6732,8 +6713,8 @@
         <v>836</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>864</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -6741,8 +6722,8 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A9" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6752,8 +6733,8 @@
         <v>839</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A10" s="13" t="s">
         <v>848</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6761,8 +6742,8 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A11" s="13" t="s">
         <v>540</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6772,8 +6753,8 @@
         <v>837</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A12" s="13" t="s">
         <v>541</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6783,8 +6764,8 @@
         <v>843</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A13" s="13" t="s">
         <v>545</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6794,24 +6775,24 @@
         <v>853</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A14" s="13" t="s">
         <v>846</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A15" s="13" t="s">
         <v>845</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A16" s="13" t="s">
         <v>542</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -6821,8 +6802,8 @@
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>544</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -6832,8 +6813,8 @@
         <v>851</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A18" s="13" t="s">
         <v>939</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -6843,8 +6824,8 @@
         <v>856</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A19" s="13" t="s">
         <v>546</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -6854,8 +6835,8 @@
         <v>859</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A20" s="13" t="s">
         <v>547</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -6865,8 +6846,8 @@
         <v>860</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A21" s="13" t="s">
         <v>548</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -6883,22 +6864,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.5" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>810</v>
       </c>
@@ -6909,7 +6890,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>812</v>
       </c>
@@ -6920,7 +6901,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>816</v>
       </c>
@@ -6931,7 +6912,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>817</v>
       </c>
@@ -6942,7 +6923,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>818</v>
       </c>
@@ -6957,21 +6938,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="33" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="81" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="90">
       <c r="A1" s="3" t="s">
         <v>221</v>
       </c>
@@ -6979,7 +6960,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="60">
       <c r="A2" s="3" t="s">
         <v>222</v>
       </c>
@@ -6987,7 +6968,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="60">
       <c r="A3" s="3" t="s">
         <v>223</v>
       </c>
@@ -6995,7 +6976,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="60">
       <c r="A4" s="3" t="s">
         <v>224</v>
       </c>
@@ -7010,22 +6991,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>757</v>
       </c>
@@ -7033,7 +7014,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>758</v>
       </c>
@@ -7041,7 +7022,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>775</v>
       </c>
@@ -7049,7 +7030,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>762</v>
       </c>
@@ -7060,7 +7041,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>802</v>
       </c>
@@ -7071,7 +7052,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>761</v>
       </c>
@@ -7079,7 +7060,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>760</v>
       </c>
@@ -7087,7 +7068,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>752</v>
       </c>
@@ -7098,7 +7079,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>759</v>
       </c>
@@ -7106,7 +7087,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>377</v>
       </c>
@@ -7114,7 +7095,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>779</v>
       </c>
@@ -7122,7 +7103,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>798</v>
       </c>
@@ -7130,7 +7111,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>790</v>
       </c>
@@ -7138,7 +7119,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>793</v>
       </c>
@@ -7149,7 +7130,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>751</v>
       </c>
@@ -7160,7 +7141,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="13.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>806</v>
       </c>
@@ -7171,7 +7152,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="13.5" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>749</v>
       </c>
@@ -7182,7 +7163,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>755</v>
       </c>
@@ -7193,7 +7174,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="13.5" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>777</v>
       </c>
@@ -7201,7 +7182,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="13.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>787</v>
       </c>
@@ -7212,7 +7193,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="13.5" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>754</v>
       </c>
@@ -7223,7 +7204,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="13.5" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>803</v>
       </c>
@@ -7234,7 +7215,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="13.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>778</v>
       </c>
@@ -7245,22 +7226,22 @@
         <v>774</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="13.5" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="13.5" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="13.5" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="13.5" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>756</v>
       </c>
@@ -7273,34 +7254,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="96.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="84.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="96.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="84.1640625" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>914</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" ht="30" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>226</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -7310,8 +7291,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:3" ht="30" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>940</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -7321,8 +7302,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:3" ht="30" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>938</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -7332,8 +7313,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:3" ht="30" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>941</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -7343,8 +7324,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" ht="30" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>231</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -7354,8 +7335,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" ht="30" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>233</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -7365,8 +7346,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>943</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -7376,8 +7357,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" ht="30" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>244</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -7387,8 +7368,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" ht="30" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>246</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -7398,8 +7379,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="10" t="s">
         <v>934</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -7407,8 +7388,8 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:3" ht="30" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>270</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -7416,8 +7397,8 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:3" ht="30" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>249</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -7427,8 +7408,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" ht="30" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>252</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -7438,8 +7419,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3" ht="48" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>255</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -7449,30 +7430,30 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:3" ht="48" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>924</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:3" ht="48" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>926</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:3" ht="30" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>942</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -7482,8 +7463,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:3" ht="44.25" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>923</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -7493,215 +7474,215 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:3" ht="30" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>932</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:3" ht="30" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>262</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:3" ht="30" customHeight="1">
+      <c r="A22" s="11" t="s">
         <v>264</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="A23" s="11" t="s">
         <v>266</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="A24" s="11" t="s">
         <v>268</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:3" ht="73.5" customHeight="1">
+      <c r="A25" s="10" t="s">
         <v>920</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="81" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:3" ht="90">
+      <c r="A26" s="10" t="s">
         <v>908</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:3" ht="105">
+      <c r="A27" s="10" t="s">
         <v>917</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:3" ht="30" customHeight="1">
+      <c r="A28" s="11" t="s">
         <v>272</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:3" ht="30" customHeight="1">
+      <c r="A29" s="11" t="s">
         <v>274</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:3" ht="67.5" customHeight="1">
+      <c r="A30" s="11" t="s">
         <v>276</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:3" ht="30" customHeight="1">
+      <c r="A31" s="10" t="s">
         <v>278</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:3" ht="45">
+      <c r="A32" s="10" t="s">
         <v>904</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:3" ht="30" customHeight="1">
+      <c r="A33" s="11" t="s">
         <v>280</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:3" ht="30" customHeight="1">
+      <c r="A34" s="11" t="s">
         <v>282</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:3" ht="30" customHeight="1">
+      <c r="A35" s="11" t="s">
         <v>284</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:3" ht="30" customHeight="1">
+      <c r="A36" s="11" t="s">
         <v>286</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:3" ht="45">
+      <c r="A37" s="10" t="s">
         <v>912</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:3" ht="30" customHeight="1">
+      <c r="A38" s="11" t="s">
         <v>289</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:3" ht="45">
+      <c r="A39" s="10" t="s">
         <v>930</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:3" ht="30" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>911</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:3" ht="60">
+      <c r="A41" s="10" t="s">
         <v>931</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:3" ht="30" customHeight="1">
+      <c r="A42" s="11" t="s">
         <v>292</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:3" ht="30" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>963</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:3" ht="30" customHeight="1">
+      <c r="A44" s="11" t="s">
         <v>295</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -7716,21 +7697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="63.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="1" t="s">
         <v>297</v>
       </c>
@@ -7738,7 +7719,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
         <v>299</v>
       </c>
@@ -7746,7 +7727,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
         <v>301</v>
       </c>
@@ -7754,7 +7735,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="1" t="s">
         <v>303</v>
       </c>
@@ -7762,7 +7743,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
         <v>305</v>
       </c>
@@ -7770,7 +7751,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
         <v>307</v>
       </c>
@@ -7778,7 +7759,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
         <v>309</v>
       </c>
@@ -7786,7 +7767,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
         <v>311</v>
       </c>
@@ -7794,7 +7775,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="1" t="s">
         <v>313</v>
       </c>
@@ -7802,7 +7783,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
         <v>315</v>
       </c>
@@ -7810,7 +7791,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" s="12" t="s">
         <v>946</v>
       </c>
@@ -7818,7 +7799,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="1" t="s">
         <v>318</v>
       </c>
@@ -7826,7 +7807,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
         <v>320</v>
       </c>
@@ -7834,7 +7815,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
         <v>322</v>
       </c>
@@ -7842,7 +7823,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="30">
       <c r="A15" s="1" t="s">
         <v>323</v>
       </c>
@@ -7850,7 +7831,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
         <v>325</v>
       </c>
@@ -7858,7 +7839,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="45">
       <c r="A17" s="1" t="s">
         <v>327</v>
       </c>
@@ -7866,7 +7847,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
         <v>329</v>
       </c>
@@ -7874,7 +7855,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
         <v>331</v>
       </c>
@@ -7882,7 +7863,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
         <v>333</v>
       </c>
@@ -7890,7 +7871,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
         <v>335</v>
       </c>
@@ -7898,7 +7879,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
         <v>337</v>
       </c>
@@ -7906,7 +7887,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
         <v>339</v>
       </c>
@@ -7914,7 +7895,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="60">
       <c r="A24" s="1" t="s">
         <v>341</v>
       </c>
@@ -7922,7 +7903,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="30">
       <c r="A25" s="1" t="s">
         <v>343</v>
       </c>
@@ -7930,15 +7911,15 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="9" t="s">
         <v>345</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="75">
       <c r="A27" s="1" t="s">
         <v>347</v>
       </c>
@@ -7954,22 +7935,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="77.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="77.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>349</v>
       </c>
@@ -7980,7 +7961,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>350</v>
       </c>
@@ -7991,7 +7972,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>351</v>
       </c>
@@ -8002,7 +7983,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>352</v>
       </c>
@@ -8013,7 +7994,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>353</v>
       </c>
@@ -8021,7 +8002,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>354</v>
       </c>
@@ -8032,7 +8013,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>360</v>
       </c>
@@ -8043,7 +8024,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>361</v>
       </c>
@@ -8054,7 +8035,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>362</v>
       </c>
@@ -8065,7 +8046,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>363</v>
       </c>
@@ -8073,7 +8054,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>364</v>
       </c>
@@ -8084,7 +8065,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>356</v>
       </c>
@@ -8092,7 +8073,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>357</v>
       </c>
@@ -8103,7 +8084,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>358</v>
       </c>
@@ -8114,7 +8095,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>359</v>
       </c>
@@ -8132,79 +8113,79 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.33203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="13" t="s">
         <v>894</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="13" t="s">
         <v>365</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="13" t="s">
         <v>367</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="13" t="s">
         <v>369</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="13" t="s">
         <v>371</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="13" t="s">
         <v>373</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="13" t="s">
         <v>375</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3" ht="60">
+      <c r="A8" s="13" t="s">
         <v>897</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -8214,8 +8195,8 @@
         <v>898</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="13" t="s">
         <v>895</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8225,24 +8206,24 @@
         <v>896</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="13" t="s">
         <v>378</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="13" t="s">
         <v>380</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:3" ht="45">
+      <c r="A12" s="13" t="s">
         <v>906</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -8252,40 +8233,40 @@
         <v>907</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="13" t="s">
         <v>383</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="13" t="s">
         <v>385</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="13" t="s">
         <v>387</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="13" t="s">
         <v>389</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="135" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:3" ht="150">
+      <c r="A17" s="13" t="s">
         <v>892</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -8295,40 +8276,40 @@
         <v>893</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="13" t="s">
         <v>391</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="13" t="s">
         <v>393</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="13" t="s">
         <v>395</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="13" t="s">
         <v>397</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="13" t="s">
         <v>399</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -8343,21 +8324,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="3" t="s">
         <v>401</v>
       </c>
@@ -8365,7 +8346,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="3" t="s">
         <v>403</v>
       </c>
@@ -8373,7 +8354,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" s="3" t="s">
         <v>405</v>
       </c>
@@ -8381,7 +8362,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="3" t="s">
         <v>407</v>
       </c>
@@ -8389,7 +8370,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="3" t="s">
         <v>409</v>
       </c>
@@ -8397,7 +8378,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="30">
       <c r="A6" s="3" t="s">
         <v>411</v>
       </c>
@@ -8405,7 +8386,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" s="3" t="s">
         <v>413</v>
       </c>
@@ -8413,7 +8394,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" s="3" t="s">
         <v>415</v>
       </c>
@@ -8421,7 +8402,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" s="3" t="s">
         <v>417</v>
       </c>
@@ -8429,7 +8410,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" s="3" t="s">
         <v>419</v>
       </c>
@@ -8437,7 +8418,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" s="3" t="s">
         <v>421</v>
       </c>
@@ -8445,7 +8426,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="3" t="s">
         <v>423</v>
       </c>
@@ -8453,7 +8434,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
         <v>428</v>
       </c>
@@ -8461,7 +8442,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="1" t="s">
         <v>427</v>
       </c>
@@ -8469,7 +8450,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="3" t="s">
         <v>429</v>
       </c>
@@ -8477,7 +8458,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" s="3" t="s">
         <v>431</v>
       </c>
@@ -8485,7 +8466,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="3" t="s">
         <v>433</v>
       </c>
@@ -8493,7 +8474,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="30">
       <c r="A18" s="3" t="s">
         <v>435</v>
       </c>
@@ -8501,7 +8482,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="3" t="s">
         <v>437</v>
       </c>
@@ -8509,7 +8490,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="30">
       <c r="A20" s="3" t="s">
         <v>439</v>
       </c>
@@ -8517,7 +8498,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="3" t="s">
         <v>441</v>
       </c>
@@ -8525,7 +8506,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="3" t="s">
         <v>443</v>
       </c>
@@ -8533,7 +8514,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="30">
       <c r="A23" s="3" t="s">
         <v>444</v>
       </c>
@@ -8541,7 +8522,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="3" t="s">
         <v>446</v>
       </c>
@@ -8549,7 +8530,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="3" t="s">
         <v>448</v>
       </c>
@@ -8557,7 +8538,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="3" t="s">
         <v>450</v>
       </c>
@@ -8565,7 +8546,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="15">
       <c r="A27" s="3" t="s">
         <v>452</v>
       </c>
@@ -8580,350 +8561,350 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="14" t="s">
         <v>454</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="14" t="s">
         <v>456</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="14" t="s">
         <v>458</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="14" t="s">
         <v>460</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="14" t="s">
         <v>462</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="14" t="s">
         <v>464</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="13" t="s">
         <v>466</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="14" t="s">
         <v>468</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="14" t="s">
         <v>470</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="14" t="s">
         <v>472</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="14" t="s">
         <v>474</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="14" t="s">
         <v>476</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="14" t="s">
         <v>478</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="13" t="s">
         <v>480</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="14" t="s">
         <v>482</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="14" t="s">
         <v>484</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="14" t="s">
         <v>486</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="14" t="s">
         <v>488</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="13" t="s">
         <v>490</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="13" t="s">
         <v>492</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="14" t="s">
         <v>494</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="14" t="s">
         <v>496</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="14" t="s">
         <v>498</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="14" t="s">
         <v>500</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="13" t="s">
         <v>502</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="14" t="s">
         <v>504</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="14" t="s">
         <v>506</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="14" t="s">
         <v>508</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="14" t="s">
         <v>510</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="14" t="s">
         <v>512</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="14" t="s">
         <v>514</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="14" t="s">
         <v>516</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="14" t="s">
         <v>518</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="14" t="s">
         <v>520</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="14" t="s">
         <v>522</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="14" t="s">
         <v>524</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="14" t="s">
         <v>526</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="14" t="s">
         <v>528</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="14" t="s">
         <v>530</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="14" t="s">
         <v>532</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="13" t="s">
         <v>959</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="13" t="s">
         <v>961</v>
       </c>
       <c r="B42" s="1" t="s">

--- a/总结/服务器/linux.xlsx
+++ b/总结/服务器/linux.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84AA56B-7FFE-C944-A0B7-033C5868E4B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765E0F4-46B7-0545-926E-EDAA1198637D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -4023,22 +4023,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ls [选项] [目录名]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-a, –all 列出目录下的所有文件，包括以 . 开头的隐含文件
--A 同-a，但不列出“.”(表示当前目录)和“..”(表示当前目录的父目录)。
--c  配合 -lt：根据 ctime 排序及显示 ctime (文件状态最后更改的时间)配合 -l：显示 ctime 但根据名称排序 否则：根据 ctime 排序
--d, –directory 将目录象文件一样显示，而不是显示其下的文件。
--F 在列出的文件名称后加一符号；例如可执行档则加 "*", 目录则加 "/"
--l 除了文件名之外,还将文件的权限、所有者、文件大小等信息详细列出来。
--r, –reverse 依相反次序排列
--R, –recursive 同时列出所有子目录层
--t 以文件修改时间排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cd [目录名]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4348,12 +4332,28 @@
     <t>下载文件的工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ls [目录]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a 列出目录下的所有文件，包括以 . 开头的隐含文件
+-l 展示文件的权限、所有者、文件大小等信息详细。
+-A 同-a，但不列出“.”(表示当前目录)和“..”(表示当前目录的父目录)。
+-c  配合 -lt：根据 ctime 排序及显示 ctime (文件状态最后更改的时间)配合 -l：显示 ctime 但根据名称排序 否则：根据 ctime 排序
+-d, –directory 将目录象文件一样显示，而不是显示其下的文件。
+-F 在列出的文件名称后加一符号；例如可执行档则加 "*", 目录则加 "/"
+-r, –reverse 依相反次序排列
+-R, –recursive 同时列出所有子目录层
+-t 以文件修改时间排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4388,6 +4388,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4415,7 +4423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4457,6 +4465,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4799,7 +4810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -5721,8 +5732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -5838,10 +5849,10 @@
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="13" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
@@ -6150,58 +6161,58 @@
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="13" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="13" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="13" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
       <c r="A56" s="13" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="13" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
       <c r="A58" s="13" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="13" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -6628,7 +6639,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -6815,7 +6826,7 @@
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>854</v>
@@ -6994,8 +7005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -7257,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -7271,13 +7282,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>914</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1">
@@ -7293,7 +7304,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>228</v>
@@ -7304,7 +7315,7 @@
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>229</v>
@@ -7315,7 +7326,7 @@
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>230</v>
@@ -7348,7 +7359,7 @@
     </row>
     <row r="8" spans="1:3" ht="42.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>235</v>
@@ -7381,10 +7392,10 @@
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -7432,29 +7443,29 @@
     </row>
     <row r="16" spans="1:3" ht="48" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="48" customHeight="1">
       <c r="A17" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>926</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>258</v>
@@ -7465,7 +7476,7 @@
     </row>
     <row r="19" spans="1:3" ht="44.25" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>260</v>
@@ -7476,10 +7487,10 @@
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1">
@@ -7516,35 +7527,35 @@
     </row>
     <row r="25" spans="1:3" ht="73.5" customHeight="1">
       <c r="A25" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>920</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="90">
       <c r="A26" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>908</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="105">
       <c r="A27" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>917</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>918</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
@@ -7581,13 +7592,13 @@
     </row>
     <row r="32" spans="1:3" ht="45">
       <c r="A32" s="10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>903</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1">
@@ -7624,13 +7635,13 @@
     </row>
     <row r="37" spans="1:3" ht="45">
       <c r="A37" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>288</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1">
@@ -7643,15 +7654,15 @@
     </row>
     <row r="39" spans="1:3" ht="45">
       <c r="A39" s="10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1">
       <c r="A40" s="10" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>291</v>
@@ -7659,10 +7670,10 @@
     </row>
     <row r="41" spans="1:3" ht="60">
       <c r="A41" s="10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1">
@@ -7675,7 +7686,7 @@
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>294</v>
@@ -7701,7 +7712,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -7793,7 +7804,7 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="12" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>317</v>
@@ -8116,8 +8127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8130,10 +8141,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="13" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -8186,24 +8197,24 @@
     </row>
     <row r="8" spans="1:3" ht="60">
       <c r="A8" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="13" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -8224,13 +8235,13 @@
     </row>
     <row r="12" spans="1:3" ht="45">
       <c r="A12" s="13" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
@@ -8265,15 +8276,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="150">
-      <c r="A17" s="13" t="s">
-        <v>892</v>
+    <row r="17" spans="1:3" ht="165">
+      <c r="A17" s="15" t="s">
+        <v>964</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>893</v>
+        <v>965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
@@ -8897,18 +8908,18 @@
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="13" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="13" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/总结/服务器/linux.xlsx
+++ b/总结/服务器/linux.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765E0F4-46B7-0545-926E-EDAA1198637D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1A869E-F58D-F54F-833B-00E0D90FD522}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="系统设置" sheetId="10" r:id="rId11"/>
     <sheet name="备份压缩" sheetId="11" r:id="rId12"/>
     <sheet name="设备管理" sheetId="12" r:id="rId13"/>
+    <sheet name="系统命令" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="1000">
   <si>
     <t>/</t>
   </si>
@@ -806,41 +807,6 @@
 s：保密性删除文件或目录。
 S：即时更新文件或目录。
 u：预防以外删除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-c或--changes 效果类似"-v"参数，但仅回报更改的部分。
--f或--quiet或--silent 　不显示错误信息。
--h或--no-dereference 　只对符号连接的文件作修改，而不更动其他任何相关文件。
--R或--recursive 　递归处理，将指定目录下的所有文件及子目录一并处理。
--v或--verbose 　显示指令执行过程。
---help 　在线帮助。
---reference=&lt;参考文件或目录&gt; 　把指定文件或目录的所属群组全部设成和参考文件或目录的所属群组相同。
---version 　显示版本信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u 表示该文件的拥有者，g 表示与该文件的拥有者属于同一个群体(group)者，o 表示其他以外的人，a 表示这三者皆是。
-+ 表示增加权限、- 表示取消权限、= 表示唯一设定权限。
-r 表示可读取，w 表示可写入，x 表示可执行，X 表示只有当该文件是个子目录或者该文件已经被设定过为可执行
--c : 若该文件权限确实已经更改，才显示其更改动作
--f : 若该文件权限无法被更改也不要显示错误讯息
--v : 显示权限变更的详细资料
--R : 对目前目录下的所有文件与子目录进行相同的权限变更(即以递回的方式逐个变更)
---help : 显示辅助说明
---version : 显示版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user : 新的文件拥有者的使用者 ID
-group : 新的文件拥有者的使用者群体(group)
--c : 若该文件拥有者确实已经更改，才显示其更改动作
--f : 若该文件拥有者无法被更改也不要显示错误讯息
--h : 只对于连结(link)进行变更，而非该 link 真正指向的文件
--v : 显示拥有者变更的详细资料
--R : 对目前目录下的所有文件与子目录进行相同的拥有者变更(即以递回的方式逐个变更)
---help : 显示辅助说明
---version : 显示版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1416,10 +1382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算字数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>let</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2415,10 +2377,6 @@
   </si>
   <si>
     <t>reboot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于用来重新启动计算机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4023,38 +3981,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cd [目录名]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd [选项]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-L 目录连接链接时，输出连接路径
--P 显示出实际路径，而非使用连接（link）路径。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mkdir [选项] 目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-m, --mode=模式，设定权限&lt;模式&gt; (类似 chmod)，而不是 rwxrwxrwx 减 umask
--p, --parents  可以是一个路径名称。此时若路径中的某些目录尚不存在,加上此选项后,系统将自动建立好那些尚不存在的目录,即一次可以建立多个目录; 
--v, --verbose  每次创建新目录都显示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建立目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>列出目录中所有的子目录和文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换当前目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4073,14 +4004,6 @@
     <t>-f, --force    忽略不存在的文件，从不给出提示。
 -i, --interactive 进行交互式删除
 -r, -R, --recursive   指示rm将参数中列出的全部目录和子目录均递归地删除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rmdir [选项] 目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- p 递归删除目录dirname，当子目录删除后其父目录为空时，也一同被删除。如果整个路径被删除或者由于某种原因保留部分路径，则系统在标准输出上显示相应的信息。 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4097,10 +4020,6 @@
 -i ：若目标文件 (destination) 已经存在时，就会询问是否覆盖！
 -u ：若目标文件已经存在，且 source 比较新，才会更新(update)
 -t  ： --target-directory=DIRECTORY 移动所有文件至目录，即指定mv的目标目录，该选项适用于移动多个源文件到一个目录的情况，此时目标目录在前，源文件在后。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp [选项] 源 目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4221,22 +4140,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">chmod [-cfvR] [--help] [--version] mode file  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chgrp [选项] [组] [文件]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chown [选项]... [所有者][:[组]] 文件…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ln [参数][源文件或目录][目标文件或目录]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4333,19 +4240,302 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ls [目录]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-a 列出目录下的所有文件，包括以 . 开头的隐含文件
--l 展示文件的权限、所有者、文件大小等信息详细。
--A 同-a，但不列出“.”(表示当前目录)和“..”(表示当前目录的父目录)。
--c  配合 -lt：根据 ctime 排序及显示 ctime (文件状态最后更改的时间)配合 -l：显示 ctime 但根据名称排序 否则：根据 ctime 排序
--d, –directory 将目录象文件一样显示，而不是显示其下的文件。
--F 在列出的文件名称后加一符号；例如可执行档则加 "*", 目录则加 "/"
--r, –reverse 依相反次序排列
--R, –recursive 同时列出所有子目录层
--t 以文件修改时间排序</t>
+    <t>apropos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于检索 man 中的关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quit退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按页查看命令使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字
+等同man -k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[月] [年]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换运行模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：关机
+3：纯文本模式
+5：图形模式
+6：重新启劢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按行查看命令使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于检索 man 中左侧命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字
+等同man -f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-k 关键字：按关键词搜索
+-f 关键词：只检索左侧命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+%Y/%m/%d：年月日
++%H:%M：时分秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-t 秒] [-arkhncfF] 时间 [警告讯息]
+-t sec：过几秒后关机
+-k：只是发送警告讯息出去
+-r：重新启动(常用)
+-h：关机(常用)
+-n：不经过 init 程序，直接以 shutdown 的功能来关机
+-f：关机并开机之后，强制略过 fsck 的磁盘检查
+-F：系统重新启动之后，强制进行 fsck 的磁盘检查
+-c：取消已经在进行的 shutdown 指令内容
+时间：这是一定要加入的参数！指定系统关机的时间，+-分钟，时间点，now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-n: 在重开机前不做将记忆体资料写回硬盘的动作
+-w: 并不会真的重开机，只是把记录写到 /var/log/wtmp 档案里
+-d: 不把记录写到 /var/log/wtmp 档案里（-n 这个参数包含了 -d）
+-f: 强迫重开机，不呼叫 shutdown 这个指令
+-i: 在重开机之前先把所有网络相关的装置先停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-n: 在关机前不做将记忆体资料写回硬盘的动作
+-w: 并不会真的关机，只是把记录写到 /var/log/wtmp 档案里
+-d: 不把记录写到 /var/log/wtmp 档案里（-n 这个参数包含了 -d）
+-f: 强迫关机，不呼叫 shutdown 这个指令
+-i: 在关机之前先把所有网络相关的装置先停止
+-p: 当关机的时候，顺便做关闭电源（poweroff）的动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poweroff</t>
+  </si>
+  <si>
+    <t>chgrp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[组] [文件]
+-c：效果类似"-v"参数，但仅回报更改的部分。
+-f：不显示错误信息。
+-h：只对符号连接的文件作修改，而不更动其他任何相关文件。
+-R：递归处理，将指定目录下的所有文件及子目录一并处理。
+-v：显示指令执行过程。
+--reference=&lt;参考文件或目录&gt;：把指定文件或目录的所属群组全部设成和参考文件或目录的所属群组相同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[所有者][:[组]] 文件
+-c: 若该文件拥有者确实已经更改，才显示其更改动作
+-f: 若该文件拥有者无法被更改也不要显示错误讯息
+-h: 只对于连结(link)进行变更，而非该 link 真正指向的文件
+-v: 显示拥有者变更的详细资料
+-R: 对目前目录下的所有文件与子目录进行相同的拥有者变更(即以递回的方式逐个变更)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chmod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[权限] [文件]
+[拥有者][类型][权限] [文件]
+u 表示该文件的拥有者，g 表示与该文件的拥有者属于同一个群体(group)者，o 表示其他以外的人，a 表示这三者皆是。
++ 表示增加权限、- 表示取消权限、= 表示唯一设定权限。
+r 表示可读取，w 表示可写入，x 表示可执行，X 表示只有当该文件是个子目录或者该文件已经被设定过为可执行
+-c: 若该文件权限确实已经更改，才显示其更改动作
+-f: 若该文件权限无法被更改也不要显示错误讯息
+-v: 显示权限变更的详细资料
+-R: 对目前目录下的所有文件与子目录进行相同的权限变更(即以递回的方式逐个变更)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsb_release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来显示LSB和特定版本的相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v: 显示版本信息。
+-i: 显示发行版的id。
+-d: 显示该发行版的描述信息。
+-r: 显示当前系统是发行版的具体版本号。
+-c: 发行版代号。
+-a: 显示上面的所有信息。
+-s: 输出简短的描述信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换工作目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[目录名]
+. 当前目录
+.. 上级目录
+- 前一个目录
+~ 当前用户目录
+~[用户名] 用户名的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-L: 目录连接链接时，输出连接路径
+-P: 显示出实际路径，而非使用连接（link）路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[目录]
+-m [权限数值]：设定权限
+-p：递归创建目录层级
+-v：每次创建新目录都显示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmdir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[目录]
+-p：如果子目录为空，递归删除目录层级
+-v：每删除一个目录都显示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[目录]
+-a: 列出目录下的所有文件，包括以 . 开头的隐含文件
+-A: 同-a，但不列出“.”和“..”
+-l: 展示文件的权限、所有者、文件大小等信息详细。
+-d: 将目录象文件一样显示，而不是显示其下的文件。
+-f: 不进行排序
+-F: 在列出的文件名称后加一符号；*:代表可执行文件； /:代表目弽； =:代表 socket 档案； |:代表 FIFO 档案；
+-r: 反向输出
+-R: 同时列出所有子目录层
+-t: 以文件修改时间排序
+-h: 文件大小格式化
+-n：列出 UID 与 GID 而非使用者与群组的名称
+-S：以档案容量大小排序，而不是用档名排序
+--color=never：不要依据档案特性给予颜色显示
+--color=always：显示颜色
+--color=auto：让系统自行依据设定来判断是否给予颜色
+--full-time ：以完整时间模式 (包吨年、月、日、时、分) 输出 
+--time={atime,ctime}：输出访问时间或创建时间而非最后修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以列表形式列出文件和目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[目录]
+等同ls -l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[源] [目标]
+-a：此选项通常在复制目录时使用，它保留链接、文件属性，并复制目录下的所有内容。其作用等于pdR参数组合。
+-d：复制时保留链接。即快捷方式，而不是快捷方式的目标文件。
+-f：覆盖已经存在的目标文件而不给出提示。
+-i：与-f选项相反，在覆盖目标文件之前给出提示，要求用户确认是否覆盖
+-p：除复制文件的内容外，还把修改时间和访问权限也复制到新文件中。
+-R：若给出的源文件是一个目录文件，此时将复制该目录下所有的子目录和文件。
+-l：不复制文件，只是生成硬链接。
+-s：复制成为符号链接文件 (symbolic link)，即『快捷方式』档案
+-u：若目标文件比源文件旧才更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4423,7 +4613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4449,9 +4639,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4469,6 +4656,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4810,8 +5003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -5730,489 +5923,516 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="102" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:3" ht="30">
       <c r="A1" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90">
+      <c r="A4" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75">
+      <c r="A5" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="150">
+      <c r="A6" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="14" t="s">
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="13" t="s">
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="14" t="s">
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="14" t="s">
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="14" t="s">
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="14" t="s">
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="14" t="s">
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="14" t="s">
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="14" t="s">
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15">
-      <c r="A14" s="13" t="s">
-        <v>945</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15">
-      <c r="A16" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60">
-      <c r="A21" s="14" t="s">
-        <v>587</v>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="13" t="s">
+        <v>575</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="14" t="s">
-        <v>589</v>
+      <c r="A22" s="13" t="s">
+        <v>577</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="60">
+      <c r="A28" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="13" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="60">
-      <c r="A24" s="14" t="s">
+      <c r="B29" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="13" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="14" t="s">
+      <c r="B30" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="13" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="14" t="s">
+      <c r="B31" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="13" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="14" t="s">
+      <c r="B32" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="13" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="14" t="s">
+      <c r="B33" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="13" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="14" t="s">
+      <c r="B34" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="13" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
-      <c r="A31" s="14" t="s">
+      <c r="B35" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="13" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="14" t="s">
+      <c r="B36" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="13" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="14" t="s">
+      <c r="B37" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="13" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="14" t="s">
+      <c r="B38" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="13" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="14" t="s">
+      <c r="B39" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="13" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="14" t="s">
+      <c r="B40" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="13" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="14" t="s">
+      <c r="B41" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="15">
+      <c r="A42" s="13" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="14" t="s">
+      <c r="B42" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="15">
+      <c r="A43" s="13" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="14" t="s">
+      <c r="B43" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44" s="13" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="14" t="s">
+      <c r="B44" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="60">
+      <c r="A45" s="13" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="14" t="s">
+      <c r="B45" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="15">
+      <c r="A46" s="13" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15">
-      <c r="A42" s="14" t="s">
+      <c r="B46" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="15">
+      <c r="A47" s="13" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="14" t="s">
+      <c r="B47" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="15">
+      <c r="A48" s="13" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="14" t="s">
+      <c r="B48" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="13" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="14" t="s">
+      <c r="B49" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="13" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15">
-      <c r="A46" s="14" t="s">
+      <c r="B50" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="15">
+      <c r="A51" s="13" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="14" t="s">
+      <c r="B51" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15">
-      <c r="A49" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15">
-      <c r="A50" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15">
-      <c r="A51" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="13" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="13" t="s">
-        <v>942</v>
+        <v>642</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="13" t="s">
-        <v>947</v>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15">
+      <c r="A54" s="12" t="s">
+        <v>644</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>948</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="13" t="s">
-        <v>949</v>
+      <c r="A55" s="12" t="s">
+        <v>930</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
-      <c r="A56" s="13" t="s">
-        <v>951</v>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="12" t="s">
+        <v>932</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
-      <c r="A57" s="13" t="s">
-        <v>953</v>
+      <c r="A57" s="12" t="s">
+        <v>934</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
-      <c r="A58" s="13" t="s">
-        <v>955</v>
+      <c r="A58" s="12" t="s">
+        <v>936</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
-      <c r="A59" s="13" t="s">
-        <v>962</v>
+      <c r="A59" s="12" t="s">
+        <v>938</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>963</v>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15">
+      <c r="A60" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -6225,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6238,394 +6458,394 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
       <c r="A45" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
       <c r="A49" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -6639,233 +6859,233 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.6640625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="C5" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="B9" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="B11" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="B12" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A16" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="B16" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="C20" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>937</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>857</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -6892,54 +7112,158 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>817</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>823</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5362F04D-46F9-E34A-ABF0-0B0286E51ABC}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="15" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60">
+      <c r="A3" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="15" t="s">
+        <v>960</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="105">
+      <c r="A8" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -7005,8 +7329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -7019,242 +7343,242 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -7268,436 +7592,439 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="96.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="84.1640625" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>912</v>
+    <row r="1" spans="1:3" ht="120">
+      <c r="A1" s="16" t="s">
+        <v>974</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1">
-      <c r="A2" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="180">
+      <c r="A2" s="16" t="s">
+        <v>978</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="90">
+      <c r="A3" s="16" t="s">
+        <v>976</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="165">
+      <c r="A4" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>938</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="7" spans="1:3" ht="30" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>936</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="8" spans="1:3" ht="30" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>939</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="9" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="10" spans="1:3" ht="30" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>941</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="11" spans="1:3" ht="30" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1">
-      <c r="A10" s="11" t="s">
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="10" t="s">
-        <v>932</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1">
-      <c r="A13" s="11" t="s">
+    <row r="15" spans="1:3" ht="30" customHeight="1">
+      <c r="A15" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="48" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="48" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>922</v>
+        <v>252</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="C16" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="48" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="48" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="48" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>924</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>940</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="44.25" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="5" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>921</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="5" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>930</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="B23" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="A24" s="10" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="A22" s="11" t="s">
+      <c r="B24" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B22" s="5" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="A25" s="10" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="B25" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="73.5" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="90">
+      <c r="A27" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="105">
+      <c r="A28" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45">
+      <c r="A29" s="10" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="73.5" customHeight="1">
-      <c r="A25" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="B29" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="67.5" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45">
+      <c r="A33" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" customHeight="1">
+      <c r="A37" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45">
+      <c r="A38" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" customHeight="1">
+      <c r="A39" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45">
+      <c r="A40" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="C25" s="8" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="60">
+      <c r="A41" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="90">
-      <c r="A26" s="10" t="s">
-        <v>906</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="105">
-      <c r="A27" s="10" t="s">
-        <v>915</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="67.5" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="45">
-      <c r="A32" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1">
-      <c r="A33" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1">
-      <c r="A35" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="45">
-      <c r="A37" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1">
-      <c r="A38" s="11" t="s">
+    <row r="42" spans="1:3" ht="30" customHeight="1">
+      <c r="A42" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45">
-      <c r="A39" s="10" t="s">
-        <v>928</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" customHeight="1">
-      <c r="A40" s="10" t="s">
-        <v>909</v>
-      </c>
-      <c r="B40" s="5" t="s">
+    <row r="43" spans="1:3" ht="30" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="60">
-      <c r="A41" s="10" t="s">
-        <v>929</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" customHeight="1">
-      <c r="A42" s="11" t="s">
+    <row r="44" spans="1:3" ht="30" customHeight="1">
+      <c r="A44" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>961</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30" customHeight="1">
-      <c r="A44" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7712,7 +8039,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -7723,219 +8050,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>297</v>
+      <c r="A1" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>990</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="12" t="s">
-        <v>944</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
-      <c r="A14" s="1" t="s">
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15">
-      <c r="A16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="60">
-      <c r="A24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -7963,158 +8290,158 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -8125,206 +8452,220 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.33203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="13" t="s">
-        <v>892</v>
+    <row r="1" spans="1:3" ht="90">
+      <c r="A1" s="14" t="s">
+        <v>983</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60">
+      <c r="A2" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="14" t="s">
+        <v>991</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="285">
+      <c r="A5" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="13" t="s">
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="13" t="s">
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="13" t="s">
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="12" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="13" t="s">
+      <c r="B13" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="12" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="60">
-      <c r="A8" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="13" t="s">
-        <v>893</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="12" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="13" t="s">
+      <c r="B15" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="12" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="45">
-      <c r="A12" s="13" t="s">
-        <v>904</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="13" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14" s="13" t="s">
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
-      <c r="A15" s="13" t="s">
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="A16" s="13" t="s">
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="165">
-      <c r="A17" s="15" t="s">
-        <v>964</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="A18" s="13" t="s">
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="13" t="s">
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="13" t="s">
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -8339,7 +8680,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8349,220 +8690,220 @@
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="3" t="s">
-        <v>401</v>
+    <row r="1" spans="1:2" ht="30">
+      <c r="A1" s="15" t="s">
+        <v>435</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30">
-      <c r="A6" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15">
-      <c r="A15" s="3" t="s">
-        <v>429</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -8576,350 +8917,350 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:A1048576"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="14" t="s">
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="14" t="s">
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="14" t="s">
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="14" t="s">
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="14" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="13" t="s">
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="14" t="s">
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="14" t="s">
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="14" t="s">
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="14" t="s">
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="14" t="s">
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="14" t="s">
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
-      <c r="A14" s="13" t="s">
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
-      <c r="A15" s="14" t="s">
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
-      <c r="A16" s="14" t="s">
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="14" t="s">
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="14" t="s">
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="13" t="s">
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
-      <c r="A20" s="13" t="s">
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="14" t="s">
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="14" t="s">
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="14" t="s">
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="14" t="s">
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="13" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="14" t="s">
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="14" t="s">
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="14" t="s">
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="14" t="s">
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="14" t="s">
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15">
-      <c r="A31" s="14" t="s">
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="14" t="s">
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="14" t="s">
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="14" t="s">
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="14" t="s">
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="14" t="s">
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="14" t="s">
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="14" t="s">
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15">
-      <c r="A39" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
     <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="13" t="s">
-        <v>957</v>
+      <c r="A41" s="12" t="s">
+        <v>940</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="13" t="s">
-        <v>959</v>
+      <c r="A42" s="12" t="s">
+        <v>942</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>

--- a/总结/服务器/linux.xlsx
+++ b/总结/服务器/linux.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1A869E-F58D-F54F-833B-00E0D90FD522}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5427CF6A-166D-2840-96F8-C755721FE30B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="1005">
   <si>
     <t>/</t>
   </si>
@@ -3997,29 +3997,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rm [选项] 文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-f, --force    忽略不存在的文件，从不给出提示。
--i, --interactive 进行交互式删除
--r, -R, --recursive   指示rm将参数中列出的全部目录和子目录均递归地删除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mv [选项] 源文件或目录 目标文件或目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件或目录改名、或将文件或目录移动位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-b ：若需覆盖文件，则覆盖前先行备份。 
--f ：force 强制的意思，如果目标文件已经存在，不会询问而直接覆盖；
--i ：若目标文件 (destination) 已经存在时，就会询问是否覆盖！
--u ：若目标文件已经存在，且 source 比较新，才会更新(update)
--t  ： --target-directory=DIRECTORY 移动所有文件至目录，即指定mv的目标目录，该选项适用于移动多个源文件到一个目录的情况，此时目标目录在前，源文件在后。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4033,16 +4011,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cat [选项] [文件]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示文件内容，或者将几个文件连接起来显示，或者从标准输入读取内容并显示，它常与重定向符号配合使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-b, --number-nonblank    对非空输出行编号
--n, --number     对输出的所有行编号,由1开始对所有输出的行数编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4536,6 +4505,63 @@
 -l：不复制文件，只是生成硬链接。
 -s：复制成为符号链接文件 (symbolic link)，即『快捷方式』档案
 -u：若目标文件比源文件旧才更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-f: 忽略不存在的文件，从不给出提示。
+-i: 进行交互式删除
+-R: 指示rm将参数中列出的全部目录和子目录均递归地删除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[源文件] [源文件] [目标文件]
+-b：若需覆盖文件，则覆盖前先行备份。 
+-f：force 强制的意思，如果目标文件已经存在，不会询问而直接覆盖；
+-i：若目标文件 (destination) 已经存在时，就会询问是否覆盖！
+-u：若目标文件已经存在，且 source 比较新，才会更新(update)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[路径]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取目录路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-A：相当于 -vET 的整合选项，可列出一些特殊字符而不是空白而已
+-b：列出行号，仅针对非空白行做行号显示，空白行不标行号
+-E：将结尾的断行字符 $ 显示出来
+-n：打印出行号，连同空白行也会有行号，不 -b 的选项不同
+-T：将 [tab] 按键以 ^I 显示出来
+-v：列出一些看不出来的特殊字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5925,7 +5951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5945,29 +5971,29 @@
         <v>552</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="14" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="14" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90">
@@ -5978,7 +6004,7 @@
         <v>568</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75">
@@ -5986,10 +6012,10 @@
         <v>591</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="150">
@@ -6000,7 +6026,7 @@
         <v>601</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -6093,10 +6119,10 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="12" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
@@ -6389,50 +6415,50 @@
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="12" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
       <c r="A56" s="12" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="12" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
       <c r="A58" s="12" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="12" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
       <c r="A60" s="12" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -7046,7 +7072,7 @@
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>849</v>
@@ -7186,84 +7212,84 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60">
       <c r="A3" s="15" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="15" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
       <c r="A7" s="15" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105">
       <c r="A8" s="15" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -7590,10 +7616,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -7606,424 +7632,446 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120">
       <c r="A1" s="16" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="180">
       <c r="A2" s="16" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90">
       <c r="A3" s="16" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="165">
       <c r="A4" s="16" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>288</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60">
+      <c r="A5" s="16" t="s">
+        <v>994</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75">
+      <c r="A6" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>233</v>
+      <c r="C7" s="8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="16" t="s">
+        <v>1002</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>924</v>
+        <v>1001</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="105">
+      <c r="A9" s="16" t="s">
+        <v>1003</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>240</v>
+        <v>894</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>918</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>267</v>
-      </c>
       <c r="B13" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>235</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="48" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="20" spans="1:3" ht="48" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="48" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>908</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="21" spans="1:3" ht="48" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="48" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="44.25" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="48" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>910</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>907</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="A22" s="10" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="A26" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="A23" s="10" t="s">
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="A24" s="10" t="s">
+    <row r="28" spans="1:3" ht="30" customHeight="1">
+      <c r="A28" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="A25" s="10" t="s">
+    <row r="29" spans="1:3" ht="30" customHeight="1">
+      <c r="A29" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="73.5" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="90">
-      <c r="A27" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="C27" s="8" t="s">
+    <row r="30" spans="1:3" ht="73.5" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="105">
+      <c r="A31" s="9" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="105">
-      <c r="A28" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="45">
-      <c r="A29" s="10" t="s">
+      <c r="B31" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45">
+      <c r="A32" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1">
-      <c r="A30" s="10" t="s">
+    <row r="33" spans="1:3" ht="30" customHeight="1">
+      <c r="A33" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="67.5" customHeight="1">
-      <c r="A31" s="10" t="s">
+    <row r="34" spans="1:3" ht="67.5" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" customHeight="1">
-      <c r="A32" s="9" t="s">
+    <row r="35" spans="1:3" ht="30" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="45">
-      <c r="A33" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="45">
-      <c r="A38" s="9" t="s">
-        <v>896</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>897</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45">
       <c r="A40" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1">
+      <c r="A41" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45">
+      <c r="A42" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="60">
+      <c r="A43" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>914</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="60">
-      <c r="A41" s="9" t="s">
-        <v>915</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" customHeight="1">
-      <c r="A42" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>944</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1">
       <c r="A44" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" customHeight="1">
+      <c r="A46" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>293</v>
       </c>
     </row>
@@ -8054,7 +8102,7 @@
         <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -8139,7 +8187,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="11" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>314</v>
@@ -8454,7 +8502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -8468,68 +8516,68 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90">
       <c r="A1" s="14" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="14" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
       <c r="A3" s="14" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>378</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="14" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>889</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="285">
       <c r="A5" s="14" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>888</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="A6" s="14" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -9249,18 +9297,18 @@
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="12" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="12" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>

--- a/总结/服务器/linux.xlsx
+++ b/总结/服务器/linux.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5427CF6A-166D-2840-96F8-C755721FE30B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08D227F-A9F2-044C-A543-675A7F1CC25C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="1008">
   <si>
     <t>/</t>
   </si>
@@ -1016,35 +1016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-b &lt;缓冲区大小&gt; 设置缓冲区的大小
--e 当文件显示结束后，自动离开
--f 强迫打开特殊文件，例如外围设备代号、目录和二进制文件
--g 只标志最后搜索的关键词
--i 忽略搜索时的大小写
--m 显示类似more命令的百分比
--N 显示每行的行号
--o &lt;文件名&gt; 将less 输出的内容在指定文件中保存起来
--Q 不使用警告音
--s 显示连续空行为一行
--S 行过长时间将超出部分舍弃
--x &lt;数字&gt; 将"tab"键显示为规定的数字空格
-/字符串：向下搜索"字符串"的功能
-?字符串：向上搜索"字符串"的功能
-n：重复前一个搜索（与 / 或 ? 有关）
-N：反向重复前一个搜索（与 / 或 ? 有关）
-b 向后翻一页
-d 向后翻半页
-h 显示帮助界面
-Q 退出less 命令
-u 向前滚动半页
-y 向前滚动一行
-空格键 滚动一行
-回车键 滚动一页
-[pagedown]： 向下翻动一页
-[pageup]： 向上翻动一页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lsattr [-adlRvV][文件或目录...]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,14 +1053,6 @@
   </si>
   <si>
     <t>文字模式下的文件管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od [-abcdfhilovx][-A &lt;字码基数&gt;][-j &lt;字符数目&gt;][-N &lt;字符数目&gt;][-s &lt;字符串字符数&gt;][-t &lt;输出格式&gt;][-w &lt;每列字符数&gt;][--help][--version][文件...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出文件内容，并将其内容以八进制字码呈现出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4015,61 +3978,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nl [选项] [文件]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算文件中行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-b  ：指定行号指定的方式，主要有两种：
-  -b a ：表示不论是否为空行，也同样列出行号(类似 cat -n)；
-  -b t ：如果有空行，空的那一行不要列出行号(默认值)；
--n  ：列出行号表示的方法，主要有三种：
-  -n ln ：行号在萤幕的最左方显示；
-  -n rn ：行号在自己栏位的最右方显示，且不加 0 ；
-  -n rz ：行号在自己栏位的最右方显示，且加 0 ；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>more [-dlfpcsu ] [-num ] [+/ pattern] [+ linenum] [file ... ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>more 命令类似 cat ，不过会以一页一页的形式显示，更方便使用者逐页阅读，而最基本的指令就是按空白键（space）就往下一页显示，按 b 键就会往回（back）一页显示，而且还有搜寻字串的功能（与 vi 相似），使用中的说明文件，请按 h 。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">+n      从笫n行开始显示
--n       定义屏幕大小为n行
-+/pattern 在每个档案显示前搜寻该字串（pattern），然后从该字串前两行之后开始显示  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>less [参数] 文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head [参数] [文件]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-c&lt;字节&gt; 显示字节数
--n&lt;行数&gt; 显示的行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tail [参数] [文件]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>head 用来显示档案的开头至标准输出中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-f 循环读取
--n&lt;行数&gt; 显示行数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4562,6 +4471,127 @@
 -n：打印出行号，连同空白行也会有行号，不 -b 的选项不同
 -T：将 [tab] 按键以 ^I 显示出来
 -v：列出一些看不出来的特殊字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat的倒序展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加行号展示文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-b：指定行号指定的方式，主要有两种
+  -b a：表示不论是否为空行，也同样列出行号(类似 cat -n)
+  -b t：如果有空行，空的那一行不要列出行号(默认值)
+-n：列出行号表示的方法，主要有三种
+  -n ln：行号在萤幕的最左方显示
+  -n rn：行号在自己栏位的最右方显示，且不加 0
+  -n rz：行号在自己栏位的最右方显示，且加 0
+-w：行号字段癿占用癿位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过翻页展示文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
++n：从笫n行开始显示
+-n：定义屏幕大小为n行
++/pattern 在每个档案显示前搜寻该字串（pattern），然后从该字串前两行之后开始显示  
+空格键：代表向下翻一页
+Enter：代表向下翻『一行』
+/字符串：代表在这个显示癿内容弼中，向下搜寻『字符串』这个关键词
+:f：立刻显示出文件名以及目前显示癿行数
+q：代表立刻离开 more ，丌再显示该档案内容
+b 或 [ctrl]-b ：代表往回翻页，不过这动作叧对档案有用，对管线无用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-b &lt;缓冲区大小&gt; 设置缓冲区的大小
+-e 当文件显示结束后，自动离开
+-f 强迫打开特殊文件，例如外围设备代号、目录和二进制文件
+-g 只标志最后搜索的关键词
+-i 忽略搜索时的大小写
+-m 显示类似more命令的百分比
+-N 显示每行的行号
+-o &lt;文件名&gt; 将less 输出的内容在指定文件中保存起来
+-Q 不使用警告音
+-s 显示连续空行为一行
+-S 行过长时间将超出部分舍弃
+-x &lt;数字&gt; 将"tab"键显示为规定的数字空格
+/字符串：向下搜索"字符串"的功能
+?字符串：向上搜索"字符串"的功能
+n：重复前一个搜索（与 / 或 ? 有关）
+N：反向重复前一个搜索（与 / 或 ? 有关）
+b: 向后翻一页
+d: 向后翻半页
+h: 显示帮助界面
+Q: 退出less 命令
+u: 向前滚动半页
+y: 向前滚动一行
+空格键: 滚动一行
+回车键: 滚动一页
+[pagedown]：向下翻动一页
+[pageup]：向上翻动一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-f 持续读取，用于显示实时日志
+-n&lt;行数&gt; 显示行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出二进制文件内容，并将其内容以八进制字码呈现出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-c &lt;字节&gt; 显示字节数
+-n &lt;行数&gt; 显示的行数，负数表示显示总数减去所剩余的行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-A &lt;字码基数&gt;
+-j &lt;字符数目&gt;
+-N &lt;字符数目&gt;
+-s &lt;字符串字符数&gt;
+-t &lt;输出格式&gt;
+-w &lt;每列字符数&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4639,7 +4669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4687,6 +4717,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5965,500 +5998,500 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="14" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="14" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="14" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90">
       <c r="A4" s="15" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75">
       <c r="A5" s="15" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="150">
       <c r="A6" s="15" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="13" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="13" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="13" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="13" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="13" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="12" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
       <c r="A25" s="13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="12" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60">
       <c r="A28" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="13" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="13" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
       <c r="A43" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="13" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="60">
       <c r="A45" s="13" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="13" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="13" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="A49" s="13" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="13" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
       <c r="A51" s="13" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="13" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="13" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
       <c r="A54" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="12" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
       <c r="A56" s="12" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="12" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
       <c r="A58" s="12" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="12" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
       <c r="A60" s="12" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -6484,394 +6517,394 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
       <c r="A45" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
       <c r="A49" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -6885,7 +6918,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -6898,220 +6931,220 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>824</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -7138,54 +7171,54 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>814</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -7212,84 +7245,84 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="15" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60">
       <c r="A3" s="15" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="15" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
       <c r="A7" s="15" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105">
       <c r="A8" s="15" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -7369,242 +7402,242 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -7616,10 +7649,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -7632,447 +7665,459 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120">
       <c r="A1" s="16" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="180">
       <c r="A2" s="16" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90">
       <c r="A3" s="16" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="165">
       <c r="A4" s="16" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60">
       <c r="A5" s="16" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75">
       <c r="A6" s="16" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="16" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="16" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="105">
       <c r="A9" s="16" t="s">
+        <v>989</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="16" t="s">
+        <v>991</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" ht="135">
+      <c r="A11" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="165">
+      <c r="A12" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="398">
+      <c r="A13" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="48" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="48" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="105">
+      <c r="A16" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="A16" s="9" t="s">
-        <v>912</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="8" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="48" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>252</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>904</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="48" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>902</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="48" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>904</v>
+        <v>236</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+        <v>244</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="9" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A24" s="9" t="s">
         <v>901</v>
       </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>258</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>910</v>
+      <c r="A25" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>911</v>
+        <v>247</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="A26" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="48" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="165">
+      <c r="A28" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B26" s="5" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="30" customHeight="1">
+      <c r="A31" s="10" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="B31" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B27" s="5" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="30" customHeight="1">
+      <c r="A32" s="10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1">
-      <c r="A28" s="10" t="s">
+      <c r="B32" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="73.5" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="105">
-      <c r="A31" s="9" t="s">
-        <v>895</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="45">
-      <c r="A32" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1">
       <c r="A33" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="67.5" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="5" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="67.5" customHeight="1">
-      <c r="A34" s="10" t="s">
+      <c r="B36" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1">
       <c r="A39" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" customHeight="1">
+      <c r="A40" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45">
+      <c r="A41" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" customHeight="1">
+      <c r="A42" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="45">
-      <c r="A40" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" customHeight="1">
-      <c r="A41" s="10" t="s">
+    <row r="43" spans="1:3" ht="45">
+      <c r="A43" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="60">
+      <c r="A44" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" customHeight="1">
+      <c r="A45" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45">
-      <c r="A42" s="9" t="s">
-        <v>908</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="60">
-      <c r="A43" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30" customHeight="1">
-      <c r="A44" s="10" t="s">
+    <row r="46" spans="1:3" ht="30" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" customHeight="1">
+      <c r="A47" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>938</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -8099,218 +8144,218 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="11" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
       <c r="A25" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -8338,158 +8383,158 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -8516,204 +8561,204 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90">
       <c r="A1" s="14" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="14" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
       <c r="A3" s="14" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="14" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="285">
       <c r="A5" s="14" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="A6" s="14" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -8740,218 +8785,218 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -8977,338 +9022,338 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="13" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="13" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="13" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="13" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="13" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="12" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="12" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>

--- a/总结/服务器/linux.xlsx
+++ b/总结/服务器/linux.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08D227F-A9F2-044C-A543-675A7F1CC25C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A6191-6FFA-694F-9EBD-C91B1C5E1DD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3964,16 +3964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>touch [选项] 文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-c   或--no-create 　不建立任何文档。
--r 　把指定文档或目录的日期时间，统统设成和参考文档或目录的日期时间相同。
--t 　使用指定的日期时间，而非现在的时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示文件内容，或者将几个文件连接起来显示，或者从标准输入读取内容并显示，它常与重定向符号配合使用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4592,6 +4582,20 @@
 -s &lt;字符串字符数&gt;
 -t &lt;输出格式&gt;
 -w &lt;每列字符数&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-a：仅修订 access time
+-m ：仅修改 mtime
+-c：仅修改档案的时间，若该档案不存在则不建立新档案
+-d：后面可以接欲修订的日期而不用目前的日期，也可以使用 --date="日期或时间"
+-t：后面可以接欲修订的时间而不用目前的时间，格式为[YYMMDDhhmm]
+-r：递归设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6004,29 +6008,29 @@
         <v>549</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="14" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90">
@@ -6037,7 +6041,7 @@
         <v>565</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75">
@@ -6045,10 +6049,10 @@
         <v>588</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="150">
@@ -6059,7 +6063,7 @@
         <v>598</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -6152,10 +6156,10 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="12" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
@@ -6448,50 +6452,50 @@
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="12" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
       <c r="A56" s="12" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="12" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
       <c r="A58" s="12" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="12" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
       <c r="A60" s="12" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -7105,7 +7109,7 @@
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>846</v>
@@ -7245,84 +7249,84 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="15" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60">
       <c r="A3" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="15" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
       <c r="A7" s="15" t="s">
+        <v>943</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105">
       <c r="A8" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>960</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -7651,8 +7655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -7665,414 +7669,414 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120">
       <c r="A1" s="16" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="180">
       <c r="A2" s="16" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90">
       <c r="A3" s="16" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="165">
       <c r="A4" s="16" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60">
       <c r="A5" s="16" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>887</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75">
       <c r="A6" s="16" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>888</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="16" t="s">
+        <v>982</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>984</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="16" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="105">
       <c r="A9" s="16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="16" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="135">
       <c r="A11" s="16" t="s">
+        <v>991</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>993</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="165">
       <c r="A12" s="16" t="s">
+        <v>994</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>996</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="398">
       <c r="A13" s="16" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>257</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="48" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="105">
       <c r="A16" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>1005</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="105">
+      <c r="A17" s="16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>1007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="A22" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>266</v>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="9" t="s">
+        <v>896</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>267</v>
+        <v>899</v>
       </c>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>248</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="A26" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="48" customHeight="1">
-      <c r="A27" s="10" t="s">
+    <row r="28" spans="1:3" ht="48" customHeight="1">
+      <c r="A28" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="165">
-      <c r="A28" s="9" t="s">
-        <v>903</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="1:3" ht="165">
+      <c r="A29" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>896</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>897</v>
-      </c>
-    </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>258</v>
+      <c r="A30" s="9" t="s">
+        <v>894</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>259</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="A32" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1">
-      <c r="A33" s="10" t="s">
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1">
-      <c r="A34" s="10" t="s">
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="67.5" customHeight="1">
-      <c r="A35" s="10" t="s">
+    <row r="36" spans="1:2" ht="67.5" customHeight="1">
+      <c r="A36" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1">
-      <c r="A37" s="10" t="s">
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1">
-      <c r="A38" s="10" t="s">
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" customHeight="1">
-      <c r="A39" s="10" t="s">
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" customHeight="1">
-      <c r="A40" s="10" t="s">
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="45">
-      <c r="A41" s="9" t="s">
-        <v>889</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" customHeight="1">
+    <row r="42" spans="1:2" ht="30" customHeight="1">
       <c r="A42" s="10" t="s">
         <v>283</v>
       </c>
@@ -8080,23 +8084,23 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45">
+    <row r="43" spans="1:2" ht="45">
       <c r="A43" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="60">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="60">
       <c r="A44" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" customHeight="1">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
       <c r="A45" s="10" t="s">
         <v>286</v>
       </c>
@@ -8104,15 +8108,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" customHeight="1">
+    <row r="46" spans="1:2" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" customHeight="1">
+    <row r="47" spans="1:2" ht="30" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>289</v>
       </c>
@@ -8147,7 +8151,7 @@
         <v>339</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -8232,7 +8236,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>311</v>
@@ -8561,68 +8565,68 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90">
       <c r="A1" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="14" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>884</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
       <c r="A3" s="14" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="14" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>886</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="285">
       <c r="A5" s="14" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>885</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="A6" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>975</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -9342,18 +9346,18 @@
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="12" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="12" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/总结/服务器/linux.xlsx
+++ b/总结/服务器/linux.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A6191-6FFA-694F-9EBD-C91B1C5E1DD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B27BA-A063-A648-AD6A-1691A53CB53F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="1016">
   <si>
     <t>/</t>
   </si>
@@ -749,14 +749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chattr [-RV][-v&lt;版本编号&gt;][+/-/=&lt;属性&gt;][文件或目录...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改变文件属性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变更文件或目录的所属群组。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,23 +782,6 @@
   </si>
   <si>
     <t>根据diff的比较结果，显示统计数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-R 递归处理，将指定目录下的所有文件及子目录一并处理。
--V 显示指令执行过程。
--v&lt;版本编号&gt; 设置文件或目录版本。
-+&lt;属性&gt; 开启文件或目录的该项属性。
--&lt;属性&gt; 关闭文件或目录的该项属性。
-=&lt;属性&gt; 指定文件或目录的该项属性。
-a：让文件或目录仅供附加用途。
-b：不更新文件或目录的最后存取时间。
-c：将文件或目录压缩后存放。
-d：将文件或目录排除在倾倒操作之外。
-i：不得任意更动文件或目录。
-s：保密性删除文件或目录。
-S：即时更新文件或目录。
-u：预防以外删除。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -874,22 +849,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file [-beLvz][-f &lt;名称文件&gt;][-m &lt;魔法数字文件&gt;...][文件或目录...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>辨识文件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-b 　列出辨识结果时，不显示文件名称。
--c 　详细显示指令执行过程，便于排错或分析程序执行的情形。
--f&lt;名称文件&gt; 　指定名称文件，其内容有一个或多个文件名称呢感，让file依序辨识这些文件，格式为每列一个文件名称。
--L 　直接显示符号连接所指向的文件的类别。
--m&lt;魔法数字文件&gt; 　指定魔法数字文件。
--v 　显示版本信息。
--z 　尝试去解读压缩文件的内容。
-[文件或目录...] 要确定类型的文件列表，多个文件之间使用空格分开，可以使用shell通配符匹配多个文件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1016,14 +976,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lsattr [-adlRvV][文件或目录...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示文件属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mc [-abcdfhkPstuUVx][-C &lt;参数&gt;][-l &lt;文件&gt;][-v &lt;文件&gt;][目录]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1113,14 +1065,6 @@
   </si>
   <si>
     <t>修改文件或者目录的时间属性，包括存取时间和更改时间。若文件不存在，系统会建立一个新的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>umask [-S][权限掩码]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定在建立文件时预设的权限掩码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3976,34 +3920,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>which 可执行文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whereis [-bmsu] [BMS 目录名 -f ] 文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>locate [选择参数] [样式]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合数据库查看文件位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find pathname -options [-print -exec -ok ...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">在PATH变量指定的路径中，搜索某个系统命令的位置，并且返回第一个搜索结果。也就是说，使用which命令，就可以看到某个系统命令是否存在，以及执行的到底是哪一个位置的命令。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位可执行文件、源代码文件、帮助文件在文件系统中的位置。这些文件的属性应属于原始代码，二进制文件，或是帮助文件。whereis 程序还具有搜索源代码、指定备用搜索路径和搜索不寻常项的能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>让使用者可以很快速的搜寻档案系统内是否有指定的档案。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4589,13 +4505,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>umask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定在建立文件时默认剔除的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[文件]
 -a：仅修订 access time
--m ：仅修改 mtime
+-m：仅修改 mtime
 -c：仅修改档案的时间，若该档案不存在则不建立新档案
 -d：后面可以接欲修订的日期而不用目前的日期，也可以使用 --date="日期或时间"
 -t：后面可以接欲修订的时间而不用目前的时间，格式为[YYMMDDhhmm]
 -r：递归设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[数值形式权限]
+-S：以符号形式展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chattr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[设置类型] [权限] [文件]
++&lt;属性&gt; 开启文件或目录的该项属性。
+-&lt;属性&gt; 关闭文件或目录的该项属性。
+=&lt;属性&gt; 指定文件或目录的该项属性。
+A：当设定了 A 这个属性时，若你有存取此档案(或目录)时，他的访问时间 atime 将不会被修改，可避免I/O较慢的机器过度的存取磁盘。这对速度较慢的计算机有帮助。
+S：一般档案是异步写入磁盘的，如果加上 S 这个 属性时，当你进行任何档案的修改，该更改会『同步』写入磁盘中。
+a：只能增加数据，而不能删除也不能修改数据，只有 root 才能设定这个属性。
+c：自动的将此档案『压缩』，在读取的时候将会自动解压缩， 但是在储存的时候，将会先进行压缩后再储存。
+d：当 dump 程序被执行的时候，设定 d 属性将可使该档案(或目录)不会被 dump 备份。
+i：设定一个档案『不能被删除、改名、设定连结、写入或新增内容。
+s：档案被删除时，他将会被完全的移除出这个硬盘空间
+u：与 s 相反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsattr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变文件高级属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示文件高级属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-a：将隐藏文件的属性显示出来。
+-d：如果是目录，仅列出目录本身的属性而非目录内的文件名。
+-R：递归展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>which</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[命令]
+-a：将所有由 PATH 目录中可以找到的命令均列出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查找命令文件位置 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whereis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找文件位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-b: 只找 binary 格式的档案。
+-m: 只找在说明文件 manual 路径下的档案。
+-s: 只找 source 来源档案。
+-u: 搜寻不在上述三个项目录中的其他特殊档案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合数据库查看文件位置，只需要部分名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[字符串]
+-i：忽略大小写的差异。
+-r：后面可接正则表示法的显示方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatedb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新文件信息数据库，为查找使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[路径]
+-mtime n：n 为数字，意义为在 n 天之前的『一天之内』被更改过内容的档案。
+-mtime +n：列出在 n 天之前(不含 n 天本身)被更改过内容的档案档名。
+-mtime -n：列出在 n 天之内(含 n 天本身)被更改过内容的档案档名。
+-newer file：file 为一个存在的档案，列出比 file 还要新的档案档名。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6002,500 +6040,500 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="14" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="14" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="14" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90">
       <c r="A4" s="15" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75">
       <c r="A5" s="15" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="150">
       <c r="A6" s="15" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="13" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="13" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="13" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="13" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="13" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="13" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="13" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="13" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="13" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="13" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="12" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="12" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="13" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="12" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
       <c r="A25" s="13" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="12" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60">
       <c r="A28" s="13" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="13" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="13" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="13" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="13" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="13" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
       <c r="A43" s="13" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="13" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="60">
       <c r="A45" s="13" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="13" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="13" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="13" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="A49" s="13" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="13" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
       <c r="A51" s="13" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="13" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="13" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
       <c r="A54" s="12" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="12" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
       <c r="A56" s="12" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="12" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
       <c r="A58" s="12" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="12" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
       <c r="A60" s="12" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -6521,394 +6559,394 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="1" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="1" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="1" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="1" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="1" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="1" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="1" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="1" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="1" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
       <c r="A45" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="1" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="1" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="1" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
       <c r="A49" s="1" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -6935,220 +6973,220 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -7175,54 +7213,54 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -7249,84 +7287,84 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="15" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60">
       <c r="A3" s="15" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="15" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
       <c r="A7" s="15" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105">
       <c r="A8" s="15" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -7406,242 +7444,242 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -7653,10 +7691,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -7669,459 +7707,485 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120">
       <c r="A1" s="16" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="180">
       <c r="A2" s="16" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90">
       <c r="A3" s="16" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="165">
       <c r="A4" s="16" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60">
       <c r="A5" s="16" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75">
       <c r="A6" s="16" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="16" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="16" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="105">
       <c r="A9" s="16" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="16" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="135">
       <c r="A11" s="16" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="165">
       <c r="A12" s="16" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="398">
       <c r="A13" s="16" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="48" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="105">
       <c r="A16" s="17" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="105">
       <c r="A17" s="16" t="s">
+        <v>990</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="225">
+      <c r="A19" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60">
+      <c r="A20" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="75">
+      <c r="A23" s="16" t="s">
         <v>1006</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>902</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="9" t="s">
-        <v>896</v>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45">
+      <c r="A24" s="16" t="s">
+        <v>1009</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="A25" s="10" t="s">
-        <v>266</v>
+        <v>1010</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="16" t="s">
+        <v>1012</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>267</v>
+        <v>1013</v>
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="A26" s="10" t="s">
-        <v>246</v>
+    <row r="26" spans="1:3" ht="75">
+      <c r="A26" s="16" t="s">
+        <v>1014</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>247</v>
+        <v>883</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>248</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="48" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="165">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="42.75" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>894</v>
+      <c r="A30" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>895</v>
+        <v>234</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>259</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1">
+      <c r="A33" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="48" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="165">
+      <c r="A35" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" customHeight="1">
+      <c r="A37" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" customHeight="1">
+      <c r="A39" s="10" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="10" t="s">
+      <c r="B39" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B33" s="5" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="67.5" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="10" t="s">
+      <c r="B40" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="5" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1">
+      <c r="A41" s="9" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" s="10" t="s">
+      <c r="B41" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" customHeight="1">
+      <c r="A42" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B35" s="5" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="30" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="67.5" customHeight="1">
-      <c r="A36" s="10" t="s">
+      <c r="B43" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="30" customHeight="1">
+      <c r="A44" s="10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="30" customHeight="1">
-      <c r="A37" s="9" t="s">
+      <c r="B44" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B37" s="5" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="30" customHeight="1">
+      <c r="A45" s="10" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" customHeight="1">
-      <c r="A38" s="10" t="s">
+      <c r="B45" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B39" s="5" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="30" customHeight="1">
+      <c r="A46" s="10" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" customHeight="1">
-      <c r="A40" s="10" t="s">
+      <c r="B46" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B40" s="5" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="30" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" customHeight="1">
-      <c r="A41" s="10" t="s">
+    <row r="48" spans="1:3" ht="30" customHeight="1">
+      <c r="A48" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" customHeight="1">
-      <c r="A42" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="60">
-      <c r="A44" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" customHeight="1">
-      <c r="A45" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>922</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30" customHeight="1">
-      <c r="A47" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -8148,218 +8212,218 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="11" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="11" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
       <c r="A25" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -8387,158 +8451,158 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -8565,204 +8629,204 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90">
       <c r="A1" s="14" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="14" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
       <c r="A3" s="14" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="14" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="285">
       <c r="A5" s="14" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="A6" s="14" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="12" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="12" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="12" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="12" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="12" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="12" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="12" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="12" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="12" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="12" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="12" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="12" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="12" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="12" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="12" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8789,218 +8853,218 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="15" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="3" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="3" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="3" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="3" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="3" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -9026,338 +9090,338 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="13" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="13" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="13" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="13" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="13" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="13" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="12" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="12" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="13" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="12" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="12" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="12" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="13" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="13" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="13" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="13" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="13" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="12" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="12" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>

--- a/总结/服务器/linux.xlsx
+++ b/总结/服务器/linux.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B27BA-A063-A648-AD6A-1691A53CB53F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73205DB6-CE10-3442-BF6C-704113E3C0E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="17540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,18 @@
     <sheet name="系统命令" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="1037">
   <si>
     <t>/</t>
   </si>
@@ -958,20 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-b 删除，覆盖以前建立的链接
--d 允许超级用户制作目录的硬链接
--f 强制执行
--i 交互模式，文件存在则提示用户是否覆盖
--n 把符号链接视为一般目录
--s 软链接(符号链接)
--v 显示详细的处理过程
--S "-S&lt;字尾备份字符串&gt; "或 "--suffix=&lt;字尾备份字符串&gt;"
--V "-V&lt;备份方式&gt;"或"--version-control=&lt;备份方式&gt;"
---help 显示帮助信息
---version 显示版本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>less 与 more 类似，但使用 less 可以随意浏览文件，而 more 仅能向前移动，却不能向后移动，而且 less 在查看之前不会加载整个文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3307,19 +3300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-c 将压缩与解压缩的结果送到标准输出。
--d 执行解压缩。
--f bzip2在压缩或解压缩时，若输出文件与现有文件同名，预设不会覆盖现有文件。若要覆盖，请使用此参数。
--k bzip2在压缩或解压缩后，会删除原始的文件。若要保留原始文件，请使用此参数。
--s 降低程序执行时内存的使用量。
--t 测试.bz2压缩文件的完整性。
--v 压缩或解压缩文件时，显示详细的信息。
--z 强制执行压缩。
---repetitive-best 若文件中有重复出现的资料时，可利用此参数提高压缩效果。
---repetitive-fast 若文件中有重复出现的资料时，可利用此参数加快执行速度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修复损坏的.bz2文件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3351,25 +3331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-a 使用ASCII文字模式。
--c 把压缩后的文件输出到标准输出设备，不去更动原始文件。
--d 解开压缩文件。
--f 强行压缩文件。不理会文件名称或硬连接是否存在以及该文件是否为符号连接。
--l 列出压缩文件的相关信息。
--L 显示版本与版权信息。
--n 压缩文件时，不保存原来的文件名称及时间戳记。
--N 压缩文件时，保存原来的文件名称及时间戳记。
--q 不显示警告信息。
--r 递归处理，将指定目录下的所有文件及子目录一并处理。
--S&lt;压缩字尾字符串&gt;或----suffix&lt;压缩字尾字符串&gt; 更改压缩字尾字符串。
--t 测试压缩文件是否正确无误。
--v 显示指令执行过程。
--&lt;压缩效率&gt; 压缩效率是一个介于1－9的数值，预设值为"6"，指定愈大的数值，压缩效率就会愈高。
---best 此参数的效果和指定"-9"参数相同。
---fast 此参数的效果和指定"-1"参数相同。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>压缩.gz文件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3385,63 +3346,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0或--null 　接受新增列控制字符，通常配合find指令的"-print0"参数使用。
--a或--reset-access-time 　重新设置文件的存取时间。
--A或--append 　附加到已存在的备份档中，且这个备份档必须存放在磁盘上，而不能放置于磁带机里。
--b或--swap 　此参数的效果和同时指定"-sS"参数相同。
--B 　将输入/输出的区块大小改成5210 Bytes。
--c 　使用旧ASCII备份格式。
--C&lt;区块大小&gt;或--io-size=&lt;区块大小&gt; 　设置输入/输出的区块大小，单位是Byte。
--d或--make-directories 　如有需要cpio会自行建立目录。
--E&lt;范本文件&gt;或--pattern-file=&lt;范本文件&gt; 　指定范本文件，其内含有一个或多个范本样式，让cpio解开符合范本条件的文件，格式为每列一个范本样式。
--f或--nonmatching 　让cpio解开所有不符合范本条件的文件。
--F&lt;备份档&gt;或--file=&lt;备份档&gt; 　指定备份档的名称，用来取代标准输入或输出，也能借此通过网络使用另一台主机的保存设备存取备份档。
--H&lt;备份格式&gt; 　指定备份时欲使用的文件格式。
--i或--extract 　执行copy-in模式，还原备份档。
--l&lt;备份档&gt; 　指定备份档的名称，用来取代标准输入，也能借此通过网络使用另一台主机的保存设备读取备份档。
--k 　此参数将忽略不予处理，仅负责解决cpio不同版本间的兼容性问题。
--l或--link 　以硬连接的方式取代复制文件，可在copy-pass模式下运用。
--L或--dereference 　不建立符号连接，直接复制该连接所指向的原始文件。
--m或preserve-modification-time 　不去更换文件的更改时间。
--M&lt;回传信息&gt;或--message=&lt;回传信息&gt; 　设置更换保存媒体的信息。
--n或--numeric-uid-gid 　使用"-tv"参数列出备份档的内容时，若再加上参数"-n"，则会以用户识别码和群组识别码替代拥有者和群组名称列出文件清单。
--o或--create 　执行copy-out模式，建立备份档。
--O&lt;备份档&gt; 　指定备份档的名称，用来取代标准输出，也能借此通过网络　使用另一台主机的保存设备存放备份档。
--p或--pass-through 　执行copy-pass模式，略过备份步骤，直接将文件复制到目的目录。
--r或--rename 　当有文件名称需要更动时，采用互动模式。
--R&lt;拥有者&gt;&lt;:/.&gt;&lt;所属群组&gt;或
-----owner&lt;拥有者&gt;&lt;:/.&gt;&lt;所属群组&gt; 　在copy-in模式还原备份档，或copy-pass模式复制文件时，可指定这些备份，复制的文件的拥有者与所属群组。
--s或--swap-bytes 　交换每对字节的内容。
--S或--swap-halfwords 　交换每半个字节的内容。
--t或--list 　将输入的内容呈现出来。
--u或--unconditional 　置换所有文件，不论日期时间的新旧与否，皆不予询问而直接覆盖。
--v或--verbose 　详细显示指令的执行过程。
--V或--dot 　执行指令时，在每个文件的执行程序前面加上"."号
---block-size=&lt;区块大小&gt; 　设置输入/输出的区块大小，假如设置数值为5，则区块大小为2500，若设置成10，则区块大小为5120，依次类推。
---force-local 　强制将备份档存放在本地主机。
---help 　在线帮助。
---no-absolute-filenames 　使用相对路径建立文件名称。
---no-preserve-owner 　不保留文件的拥有者，谁解开了备份档，那些文件就归谁所有。
--only-verify-crc 　当备份档采用CRC备份格式时，可使用这项参数检查备份档内的每个文件是否正确无误。
---quiet 　不显示复制了多少区块。
---sparse 　倘若一个文件内含大量的连续0字节，则将此文件存成稀疏文件。
---version 　显示版本信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>压缩解压.cpio或.tra文件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c 输出结果至标准输出设备（一般指荧幕）
-f 强迫写入档案，若目的档已经存在，则会被覆盖 (force)
-v 将程序执行的讯息印在荧幕上 (verbose)
-b 设定共同字串数的上限，以位元计算，可以设定的值为 9 至 16 bits 。由于值越大，能使用的共同字串就 越多，压缩比例就越大，所以一般使用预设值 16 bits (bits)
-d 将压缩档解压缩
-V 列出版本讯息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">压缩.Z文件。 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3451,22 +3359,6 @@
   </si>
   <si>
     <t>将目录或整个文件系统备份至指定的设备，或备份成一个大文件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0123456789 　备份的层级。
--b&lt;区块大小&gt; 　指定区块的大小，单位为KB。
--B&lt;区块数目&gt; 　指定备份卷册的区块数目。
--c 　修改备份磁带预设的密度与容量。
--d&lt;密度&gt; 　设置磁带的密度。单位为BPI。
--f&lt;设备名称&gt; 　指定备份设备。
--h&lt;层级&gt; 　当备份层级等于或大雨指定的层级时，将不备份用户标示为"nodump"的文件。
--n 　当备份工作需要管理员介入时，向所有"operator"群组中的使用者发出通知。
--s&lt;磁带长度&gt; 　备份磁带的长度，单位为英尺。
--T&lt;日期&gt; 　指定开始备份的时间与日期。
--u 　备份完毕后，在/etc/dumpdates中记录备份的文件系统，层级，日期与时间等。
--w 　与-W类似，但仅显示需要备份的文件。
--W 　显示需要备份的文件及其最后一次备份的层级，时间与日期。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3527,103 +3419,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-b&lt;区块大小&gt; 设置区块大小，单位是Byte。
--c 不检查dump操作的备份格式，仅准许读取使用旧格式的备份文件。
--C 使用对比模式，将备份的文件与现行的文件相互对比。
--D&lt;文件系统&gt; 允许用户指定文件系统的名称。
--f&lt;备份文件&gt; 从指定的文件中读取备份数据，进行还原操作。
--h 仅解出目录而不包括与该目录相关的所有文件。
--i 使用互动模式，在进行还原操作时，restore指令将依序询问用户。
--m 解开符合指定的inode编号的文件或目录而非采用文件名称指定。
--r 进行还原操作。
--R 全面还原文件系统时，检查应从何处开始进行。
--s&lt;文件编号&gt; 当备份数据超过一卷磁带时，您可以指定备份文件的编号。
--t 指定文件名称，若该文件已存在备份文件中，则列出它们的名称。
--v 显示指令执行过程。
--x 设置文件名称，且从指定的存储媒体里读入它们，若该文件已存在在备份文件中，则将其还原到文件系统内。
--y 不询问任何问题，一律以同意回答并继续执行指令。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>压缩解压.tar.gz文件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>压缩解压.lzh文件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-A或--catenate 新增文件到已存在的备份文件。
--b&lt;区块数目&gt;或--blocking-factor=&lt;区块数目&gt; 设置每笔记录的区块数目，每个区块大小为12Bytes。
--B或--read-full-records 读取数据时重设区块大小。
--c或--create 建立新的备份文件。
--C&lt;目的目录&gt;或--directory=&lt;目的目录&gt; 切换到指定的目录。
--d或--diff或--compare 对比备份文件内和文件系统上的文件的差异。
--f&lt;备份文件&gt;或--file=&lt;备份文件&gt; 指定备份文件。
--F&lt;Script文件&gt;或--info-script=&lt;Script文件&gt; 每次更换磁带时，就执行指定的Script文件。
--g或--listed-incremental 处理GNU格式的大量备份。
--G或--incremental 处理旧的GNU格式的大量备份。
--h或--dereference 不建立符号连接，直接复制该连接所指向的原始文件。
--i或--ignore-zeros 忽略备份文件中的0 Byte区块，也就是EOF。
--k或--keep-old-files 解开备份文件时，不覆盖已有的文件。
--K&lt;文件&gt;或--starting-file=&lt;文件&gt; 从指定的文件开始还原。
--l或--one-file-system 复制的文件或目录存放的文件系统，必须与tar指令执行时所处的文件系统相同，否则不予复制。
--L&lt;媒体容量&gt;或-tape-length=&lt;媒体容量&gt; 设置存放每体的容量，单位以1024 Bytes计算。
--m或--modification-time 还原文件时，不变更文件的更改时间。
--M或--multi-volume 在建立，还原备份文件或列出其中的内容时，采用多卷册模式。
--N&lt;日期格式&gt;或--newer=&lt;日期时间&gt; 只将较指定日期更新的文件保存到备份文件里。
--o或--old-archive或--portability 将资料写入备份文件时使用V7格式。
--O或--stdout 把从备份文件里还原的文件输出到标准输出设备。
--p或--same-permissions 用原来的文件权限还原文件。
--P或--absolute-names 文件名使用绝对名称，不移除文件名称前的"/"号。
--r或--append 新增文件到已存在的备份文件的结尾部分。
--R或--block-number 列出每个信息在备份文件中的区块编号。
--s或--same-order 还原文件的顺序和备份文件内的存放顺序相同。
--S或--sparse 倘若一个文件内含大量的连续0字节，则将此文件存成稀疏文件。
--t或--list 列出备份文件的内容。
--T&lt;范本文件&gt;或--files-from=&lt;范本文件&gt; 指定范本文件，其内含有一个或多个范本样式，让tar解开或建立符合设置条件的文件。
--u或--update 仅置换较备份文件内的文件更新的文件。
--U或--unlink-first 解开压缩文件还原文件之前，先解除文件的连接。
--v或--verbose 显示指令执行过程。
--V&lt;卷册名称&gt;或--label=&lt;卷册名称&gt; 建立使用指定的卷册名称的备份文件。
--w或--interactive 遭遇问题时先询问用户。
--W或--verify 写入备份文件后，确认文件正确无误。
--x或--extract或--get 从备份文件中还原文件。
--X&lt;范本文件&gt;或--exclude-from=&lt;范本文件&gt; 指定范本文件，其内含有一个或多个范本样式，让ar排除符合设置条件的文件。
--z或--gzip或--ungzip 通过gzip指令处理备份文件。
--Z或--compress或--uncompress 通过compress指令处理备份文件。
--&lt;设备编号&gt;&lt;存储密度&gt; 设置备份用的外围设备编号及存放数据的密度。
---after-date=&lt;日期时间&gt; 此参数的效果和指定"-N"参数相同。
---atime-preserve 不变更文件的存取时间。
---backup=&lt;备份方式&gt;或--backup 移除文件前先进行备份。
---checkpoint 读取备份文件时列出目录名称。
---concatenate 此参数的效果和指定"-A"参数相同。
---confirmation 此参数的效果和指定"-w"参数相同。
---delete 从备份文件中删除指定的文件。
---exclude=&lt;范本样式&gt; 排除符合范本样式的问家。
---group=&lt;群组名称&gt; 把加入设备文件中的文件的所属群组设成指定的群组。
---help 在线帮助。
---ignore-failed-read 忽略数据读取错误，不中断程序的执行。
---new-volume-script=&lt;Script文件&gt; 此参数的效果和指定"-F"参数相同。
---newer-mtime 只保存更改过的文件。
---no-recursion 不做递归处理，也就是指定目录下的所有文件及子目录不予处理。
---null 从null设备读取文件名称。
---numeric-owner 以用户识别码及群组识别码取代用户名称和群组名称。
---owner=&lt;用户名称&gt; 把加入备份文件中的文件的拥有者设成指定的用户。
---posix 将数据写入备份文件时使用POSIX格式。
---preserve 此参数的效果和指定"-ps"参数相同。
---preserve-order 此参数的效果和指定"-A"参数相同。
---preserve-permissions 此参数的效果和指定"-p"参数相同。
---record-size=&lt;区块数目&gt; 此参数的效果和指定"-b"参数相同。
---recursive-unlink 解开压缩文件还原目录之前，先解除整个目录下所有文件的连接。
---remove-files 文件加入备份文件后，就将其删除。
---rsh-command=&lt;执行指令&gt; 设置要在远端主机上执行的指令，以取代rsh指令。
---same-owner 尝试以相同的文件拥有者还原问家你。
---suffix=&lt;备份字尾字符串&gt; 移除文件前先行备份。
---totals 备份文件建立后，列出文件大小。
---use-compress-program=&lt;执行指令&gt; 通过指定的指令处理备份文件。
---version 显示版本信息。
---volno-file=&lt;编号文件&gt; 使用指定文件内的编号取代预设的卷册编号。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3928,10 +3728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ln [参数][源文件或目录][目标文件或目录]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>diff[参数][文件1或目录1][文件2或目录2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4633,7 +4429,303 @@
 -mtime n：n 为数字，意义为在 n 天之前的『一天之内』被更改过内容的档案。
 -mtime +n：列出在 n 天之前(不含 n 天本身)被更改过内容的档案档名。
 -mtime -n：列出在 n 天之内(含 n 天本身)被更改过内容的档案档名。
--newer file：file 为一个存在的档案，列出比 file 还要新的档案档名。</t>
+-newer file：file 为一个存在的档案，列出比 file 还要新的档案档名。
+-uid n：n 为数字，这个数字是用户的账号 ID，即 UID ，这个 UID 是记录在 /etc/passwd 里面不账号名称对应的数字。
+-gid n：n 为数字，这个数字是组名的 ID，即 GID，这个 GID 记录在 /etc/group。
+-user name：name 为使用者账号名称。
+-group name：name 为组名。
+-nouser：寻找档案的拥有者不存在 /etc/passwd 的人。
+-nogroup：寻找档案的拥有群组不存在于 /etc/group 的档案。当你自行安装软件时，很可能该软件的属性当中幵没有档案拥有者。
+-name filename：搜寻文件名为 filename 的档案。
+-size [+-]SIZE：搜寻比 SIZE 还要大(+)或小(-)的档案。这个 SIZE 的规格有：c: 代表 byte，k: 代表 1 kb。
+-type TYPE：搜寻档案的类型为 TYPE，类型主要有：一般正规档案(f), 装置档案(b, c), 目录(d), 连结档(l), socket(s), 及 FIFO (p) 等属性。
+-perm mode：搜寻档案权限『刚好等于』 mode 的档案，这个 mode 为类似 chmod 的属性值。
+-perm -mode：搜寻档案权限『必须要全部包括 mode 的权限』的档案。
+-perm +mode ：搜寻档案权限『包含任一 mode 的权限』的档案。
+-exec command：command 为其他指令，-exec 后面可再接额外的指令来处理搜寻到的结果。
+-print：将结果打印到屏幕上，这个是预设动作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dumpe2fs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[硬盘路径]
+-b：列出保留为坏轨的部分。
+-h：仅列出 superblock 的数据，不会列出其他的区段内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询 superblock 和 block group 信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-a：列出所有的文件系统，包括系统特有的 /proc 等文件系统。
+-k：以 KBytes 为单位显示各文件系统。
+-m：以 MBytes 为单位显示各文件系统。
+-h：以人们较易阅读的 GBytes, MBytes, KBytes 等格式自行显示。
+-H：以 M=1000K 取代 M=1024K 的进位方式。
+-T：列出系统文件格式。
+-i：不用硬盘容量，而以 inode 的数量来显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[文件]
+-a：列出所有的档案与目录容量，因为默认仅统计目录底下的档案量而已。
+-h：以人们较易读的容量格式 (G/M) 显示。
+-s：列出总量而已，而不列出每个各别的目录占用容量。
+-S：不包括子目录下的总计，不 -s 有点差别。
+-k：以 KBytes 列出容量显示。
+-m：以 MBytes 列出容量显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[源文件][目标文件]
+-b 删除，覆盖以前建立的链接
+-d 允许超级用户制作目录的硬链接
+-f 强制执行
+-i 交互模式，文件存在则提示用户是否覆盖
+-n 把符号链接视为一般目录
+-s 软链接(符号链接)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partprobe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制让核心重新捉一次 partition table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘路径
+-t 文件格式：可以接文件系统格式，例如 ext3, ext2, vfat 等(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘路径
+-l：输出后面接的装置所有的 partition 内容。若仅有 fdisk -l 时， 则系统将会把整个系统内能够搜寺到的装置的 partition 均列出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘路径
+-t 文件格式:指定文件系统格式。
+-A:依据 /etc/fstab 的内容,将需要的装置扫瞄一次。
+-A:自动修复检查到的有问题的扇区。
+-y:与 -A 类似,但是某些 filesystem 仅支持 -y 这个参数。
+-'C':可以在检验的过程当中,使用一个直方图来显示目前的进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-f：强制检查。
+-D：针对文件系统下的目彔进行优化配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘路径
+-s：在屏幕上列出进度。
+-v：可以在屏幕上看到进度。
+-w：使用写入的方式来测试，建议不要使用此一参数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[目录] [挂载目录]
+-a：将 /etc/fstab 中定义的所有档案系统挂上。
+-l：增列 Label 名称。
+-t：指定系统文件类型。
+-n：一般而言，mount 在挂上后会在 /etc/mtab 中写入一笔资料。但在系统中没有可写入档案系统存在的情况下可以用这个选项取消这个动作。
+-L：将含有特定标签的硬盘分割挂上。
+-U：将档案分割序号为 的档案系统挂下。-L 和 -U 必须在/proc/partition 这种档案存在时才有意义。
+-F：这个命令通常和 -a 一起使用，它会为每一个 mount 的动作产生一个行程负责执行。在系统需要挂上大量 NFS 档案系统时可以加快挂上的动作。
+-f：通常用在除错的用途。它会使 mount 并不执行实际挂上的动作，而是模拟整个挂上的过程。通常会和 -v 一起使用。
+-v：显示较讯息，通常和 -f 用来除错。
+-o async：打开非同步模式，所有的档案读写动作都会用非同步模式执行。
+-o sync：在同步模式下执行。
+-o atime、-o noatime：当 atime 打开时，系统会在每次读取档案时更新档案的『上一次调用时间』。当我们使用 flash 档案系统时可能会选项把这个选项关闭以减少写入的次数。
+-o auto、-o noauto：打开/关闭自动挂上模式。
+-o defaults:使用预设的选项 rw, suid, dev, exec, auto, nouser, and async.
+-o dev、-o nodev-o exec、-o noexec：允许执行档被执行。
+-o suid、-o nosuid：允许执行档在 root 权限下执行。
+-o user、-o nouser：使用者可以执行 mount/umount 的动作。
+-o remount：将一个已经挂下的档案系统重新用不同的方式挂上。例如原先是唯读的系统，现在用可读写的模式重新挂上。
+-o ro：用唯读模式挂上。
+-o rw：用可读写模式挂上。
+-o loop=：使用 loop 模式用来将一个档案当成硬盘分割挂上系统。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载目录
+-a: 卸除/etc/mtab中记录的所有文件系统。
+-f：强制卸除。
+-n: 卸除时不要将信息存入/etc/mtab文件中。
+-r: 若无法成功卸除，则尝试以只读的方式重新挂入文件系统。
+-t&lt;文件系统类型&gt;: 仅卸除选项中所指定的文件系统。
+-v 执行时显示详细的信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘路径
+-a&lt;快取分区&gt;：设定读取文件时，预先存入块区的分区数，若不加上&lt;快取分区&gt;选项，则显示目前的设定；
+-A&lt;0或1&gt;：启动或关闭读取文件时的快取功能；
+-c&lt;I/O模式&gt;：设定IDE32位I/O模式；
+-C：检测IDE硬盘的电源管理模式；
+-d&lt;0或1&gt;：设定磁盘的DMA模式；
+-f：将内存缓冲区的数据写入硬盘，并清楚缓冲区；
+-g：显示硬盘的磁轨，磁头，磁区等参数；
+-i：显示硬盘的硬件规格信息，这些信息是在开机时由硬盘本身所提供；
+-I：直接读取硬盘所提供的硬件规格信息；
+-k&lt;0或1&gt;：重设硬盘时，保留-dmu参数的设定；
+-K&lt;0或1&gt;：重设硬盘时，保留-APSWXZ参数的设定；
+-m&lt;磁区数&gt;：设定硬盘多重分区存取的分区数；
+-n&lt;0或1&gt;：忽略硬盘写入时所发生的错误；
+-p&lt;PIO模式&gt;：设定硬盘的PIO模式；
+-P&lt;磁区数&gt;：设定硬盘内部快取的分区数；
+-q:在执行后续的参数时，不在屏幕上显示任何信息；
+-r&lt;0或1&gt;:设定硬盘的读写模式；
+-S&lt;时间&gt;:设定硬盘进入省电模式前的等待时间；
+-t;评估硬盘的读取效率；
+-T：平谷硬盘快取的读取效率；
+-u&lt;0或1&gt;：在硬盘存取时，允许其他中断要求同时执行；
+-v：显示硬盘的相关设定；
+-w&lt;0或1&gt;：设定硬盘的写入快取；
+-X&lt;传输模式&gt;：设定硬盘的传输模式；
+-y：使IDE硬盘进入省电模式；
+-Y：使IDE硬盘进入睡眠模式；
+-Z：关闭某些Seagate硬盘的自动省电功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件
+-c: 输出结果至标准输出设备（一般指荧幕）
+-r：可以连同目录下的档案也同时给予压缩
+-f: 强迫写入档案，若目的档已经存在，则会被覆盖 (force)
+-v: 将程序执行的讯息印在荧幕上 (verbose)
+-b: 设定共同字串数的上限，以位元计算，可以设定的值为 9 至 16 bits 。由于值越大，能使用的共同字串就 越多，压缩比例就越大，所以一般使用预设值 16 bits (bits)
+-d: 将压缩档解压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件
+-a: 使用ASCII文字模式。
+-c: 把压缩后的文件输出到标准输出设备，不去更动原始文件。
+-d: 解开压缩文件。
+-f: 强行压缩文件。不理会文件名称或硬连接是否存在以及该文件是否为符号连接。
+-l: 列出压缩文件的相关信息。
+-L: 显示版本与版权信息。
+-n: 压缩文件时，不保存原来的文件名称及时间戳记。
+-N: 压缩文件时，保存原来的文件名称及时间戳记。
+-q: 不显示警告信息。
+-r: 递归处理，将指定目录下的所有文件及子目录一并处理。
+-S&lt;压缩字尾字符串&gt;或----suffix&lt;压缩字尾字符串&gt;: 更改压缩字尾字符串。
+-t: 测试压缩文件是否正确无误。
+-v: 显示指令执行过程。
+-&lt;压缩效率&gt;: 压缩效率是一个介于1－9的数值，预设值为"6"，指定愈大的数值，压缩效率就会愈高。
+--best 此参数的效果和指定"-9"参数相同。
+--fast 此参数的效果和指定"-1"参数相同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件
+-c: 将压缩与解压缩的结果送到标准输出。
+-d: 执行解压缩。
+-f: bzip2在压缩或解压缩时，若输出文件与现有文件同名，预设不会覆盖现有文件。若要覆盖，请使用此参数。
+-k: bzip2在压缩或解压缩后，会删除原始的文件。若要保留原始文件，请使用此参数。
+-s: 降低程序执行时内存的使用量。
+-t: 测试.bz2压缩文件的完整性。
+-v: 压缩或解压缩文件时，显示详细的信息。
+-z: 强制执行压缩。
+--repetitive-best: 若文件中有重复出现的资料时，可利用此参数提高压缩效果。
+--repetitive-fast: 若文件中有重复出现的资料时，可利用此参数加快执行速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件
+-c: 建立新的备份文件。
+-t: 列出备份文件的内容。
+-x: 从备份文件中还原文件。
+-j：透过 bzip2 的支持进行压缩/解压缩。
+-z：透过 gzip 的支持进行压缩/解压缩。
+-v: 显示指令执行过程。
+-f&lt;备份文件&gt;: 指定备份文件。
+-C&lt;目的目录&gt;: 解压到指定的目录。
+-p: 用原来的文件权限还原文件。
+-P: 文件名使用绝对名称，不移除文件名称前的”/”号。
+–exclude=&lt;范本样式&gt;: 排除符合范本样式的文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-level] [-f 备份档] 待备份资料
+-S：仅列出后面的待备份数据需要多少磁盘空间才能够备份完毕。
+-u：备份完毕后，在/etc/dumpdates中记录备份的文件系统，层级，日期与时间等。
+-v：显示过程。
+-j：加入 bzip2 的支持！将数据进行压缩，默认 bzip2 压缩等级为 2。
+-level：就是我们谈到的等级，从 -0 ~ -9 共十个等级。
+-f&lt;设备名称&gt;：备份位置。
+-W：列出在 /etc/fstab 里面的记录，显示需要备份的文件及其最后一次备份的层级，时间与日期。
+-T&lt;日期&gt;：指定开始备份的时间与日期。
+-w：与-W类似，但仅显示需要备份的文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-f dumpfile]
+-t: 指定文件名称，若该文件已存在备份文件中，则列出它们的名称。
+-C: 使用对比模式，将备份的文件与现行的文件相互对比。
+-i: 使用互动模式，在进行还原操作时，restore指令将依序询问用户。
+-r: 进行还原操作。
+-h: 仅解出目录而不包括与该目录相关的所有文件。
+-D&lt;文件系统&gt;: 允许用户指定文件系统的名称。
+-f&lt;备份文件&gt;: 从指定的文件中读取备份数据，进行还原操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待备份文件
+-o&lt;映像文件&gt;: 指定映像文件的名称。
+-r: 使用Rock Ridge Extensions，并开放全部文件的读取权限。
+-v: 显示过程。
+-m&lt;目录或文件名&gt;：指定的目录或文件名将不会放入映像文件中。
+-V&lt;光盘ID&gt;：指定光盘的卷册集ID。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if：就是 input file。
+of：就是 output file。
+bs：规划的一个 block 的大小，若未指定则预值是 512 bytes。
+count：多少个 bs 的意思。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-o：将数据 copy 输出到档案或装置上。
+-B：让预设的 Blocks 可以增加至 5120 bytes，预设是 512 bytes。
+-i：将数据自档案或装置 copy 出来系统当中。
+-d：自动建立目录。
+-u：自动的将较新的档案覆盖较旧的档案
+-t：需配合 -i 选顷，可用在"察看"以 cpio 建立的档案或装置的内容 一些可共享的选项与参数。
+-v：让储存的过程中文件名可以在屏幕上显示。
+-c：一种较新的 portable format 方式储存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示指令执行来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-t：显示执行来源 file ：表示为外部指令； alias ：表示该指令为命令别名所设定的名称；builtin ：表示该指令为 bash 内建的指令功能。
+-p：如果后面接的 name 为外部指令时，才会显示完整文件名。
+-a：会由 PATH 发量定义的路径中，将所有含 name 的指令都列出来，包含 alias。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4711,7 +4803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4762,6 +4854,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5105,7 +5200,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6027,7 +6122,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6040,500 +6135,500 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="14" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="14" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90">
       <c r="A4" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75">
       <c r="A5" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="150">
       <c r="A6" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="13" t="s">
-        <v>533</v>
+      <c r="A7" s="14" t="s">
+        <v>631</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>534</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="13" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="13" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="13" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="12" t="s">
-        <v>890</v>
+        <v>556</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
-      <c r="A20" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="12" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="12" t="s">
+      <c r="B25" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" s="13" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="13" t="s">
+      <c r="B26" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="13" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="13" t="s">
+      <c r="B27" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="12" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="12" t="s">
+      <c r="B28" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="60">
+      <c r="A29" s="13" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="60">
-      <c r="A28" s="13" t="s">
+      <c r="B29" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="13" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
       <c r="A43" s="13" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="60">
+      <c r="A46" s="13" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="60">
-      <c r="A45" s="13" t="s">
+      <c r="B46" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15">
-      <c r="A46" s="13" t="s">
-        <v>616</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15">
+      <c r="A49" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15">
-      <c r="A51" s="13" t="s">
-        <v>626</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15">
+      <c r="A54" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15">
-      <c r="A54" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="12" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
       <c r="A56" s="12" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="12" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
       <c r="A58" s="12" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="12" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
       <c r="A60" s="12" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -6546,8 +6641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6559,394 +6654,394 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="18" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="18" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="18" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="18" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="18" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
       <c r="A45" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
       <c r="A49" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -6959,8 +7054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -6971,222 +7066,224 @@
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>518</v>
+    <row r="1" spans="1:3" ht="135">
+      <c r="A1" s="14" t="s">
+        <v>522</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>807</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>519</v>
+      <c r="A2" s="14" t="s">
+        <v>825</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>520</v>
+        <v>819</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="300">
+      <c r="A3" s="14" t="s">
+        <v>526</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>814</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>521</v>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="225">
+      <c r="A4" s="14" t="s">
+        <v>519</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>522</v>
+        <v>812</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="180">
+      <c r="A5" s="14" t="s">
+        <v>876</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>527</v>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="195">
+      <c r="A6" s="14" t="s">
+        <v>524</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="120">
+      <c r="A7" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="135">
+      <c r="A8" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>846</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="7" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>831</v>
+        <v>518</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>811</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>529</v>
+        <v>838</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>836</v>
+        <v>815</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>827</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>526</v>
+        <v>822</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>834</v>
+        <v>826</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>884</v>
+        <v>527</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -7213,54 +7310,54 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>793</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>795</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>804</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -7271,10 +7368,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5362F04D-46F9-E34A-ABF0-0B0286E51ABC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -7287,84 +7384,95 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="15" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60">
       <c r="A3" s="15" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="15" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
       <c r="A7" s="15" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105">
       <c r="A8" s="15" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>944</v>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="105">
+      <c r="A9" s="15" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -7431,7 +7539,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -7444,242 +7552,242 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>783</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>774</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>765</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1">
       <c r="A20" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>777</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.5" customHeight="1">
       <c r="A22" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>787</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -7693,8 +7801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -7707,485 +7815,485 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120">
       <c r="A1" s="16" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>226</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="180">
       <c r="A2" s="16" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>227</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90">
       <c r="A3" s="16" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="165">
       <c r="A4" s="16" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60">
       <c r="A5" s="16" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75">
       <c r="A6" s="16" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="16" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="16" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="105">
       <c r="A9" s="16" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="16" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="135">
       <c r="A11" s="16" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="165">
       <c r="A12" s="16" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="398">
       <c r="A13" s="16" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="48" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="105">
       <c r="A16" s="17" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="105">
       <c r="A17" s="16" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="225">
       <c r="A19" s="17" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60">
       <c r="A20" s="17" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="17" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>240</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="75">
       <c r="A23" s="16" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45">
       <c r="A24" s="16" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" ht="342">
+      <c r="A26" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="105">
+      <c r="A27" s="16" t="s">
         <v>1012</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>1013</v>
-      </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" ht="75">
-      <c r="A26" s="16" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="A28" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1">
+      <c r="A29" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>243</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1">
       <c r="A33" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="48" customHeight="1">
-      <c r="A34" s="10" t="s">
+    <row r="35" spans="1:3" ht="48" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="165">
-      <c r="A35" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1">
       <c r="A36" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1">
       <c r="A37" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1">
       <c r="A38" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1">
       <c r="A39" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="67.5" customHeight="1">
       <c r="A40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1">
       <c r="A41" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1">
       <c r="A42" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1">
       <c r="A43" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1">
       <c r="A44" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1">
       <c r="A45" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1">
       <c r="A46" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1">
       <c r="A48" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -8200,7 +8308,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8212,218 +8320,218 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="11" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
       <c r="A25" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -8438,7 +8546,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -8451,158 +8559,158 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -8615,218 +8723,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.83203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="90">
       <c r="A1" s="14" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="14" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
       <c r="A3" s="14" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="14" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="285">
       <c r="A5" s="14" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="A6" s="14" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="12" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="120">
+      <c r="A7" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="12" t="s">
-        <v>351</v>
+      <c r="C7" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="105">
+      <c r="A8" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="12" t="s">
         <v>353</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="409.6">
+      <c r="A9" s="14" t="s">
+        <v>363</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="12" t="s">
-        <v>355</v>
+        <v>364</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="105">
+      <c r="A10" s="14" t="s">
+        <v>372</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>356</v>
+        <v>373</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="12" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8838,233 +8958,278 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="63.33203125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:3" ht="30">
       <c r="A1" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="45">
+      <c r="A2" s="15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="15" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="90">
+      <c r="A9" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30">
+      <c r="A12" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60">
+      <c r="A13" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="409.6">
+      <c r="A14" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60">
+      <c r="A15" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="90">
+      <c r="A19" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15">
-      <c r="A16" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
-      <c r="A20" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -9090,338 +9255,338 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="12" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="12" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
